--- a/excel/Template.xlsx
+++ b/excel/Template.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\AutomationTestSuite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858B6831-BEDE-41F8-B443-D8E7DD417056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14003A0F-2E15-4FC2-A48A-12893D1356D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
+    <workbookView minimized="1" xWindow="25200" yWindow="3530" windowWidth="8640" windowHeight="4525" activeTab="1" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="10" r:id="rId1"/>
     <sheet name="Dropdown" sheetId="4" r:id="rId2"/>
-    <sheet name="template" sheetId="11" r:id="rId3"/>
-    <sheet name="amazon product page details" sheetId="7" r:id="rId4"/>
+    <sheet name="amazon product page details" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId4"/>
     <sheet name="amazon product urls" sheetId="8" r:id="rId5"/>
+    <sheet name="template" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="207">
   <si>
     <t>Test Name</t>
   </si>
@@ -644,6 +645,12 @@
   </si>
   <si>
     <t>screenshot.png</t>
+  </si>
+  <si>
+    <t>Fill the Search Box in amazon.in</t>
+  </si>
+  <si>
+    <t>Click the third product</t>
   </si>
 </sst>
 </file>
@@ -800,7 +807,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1135,12 +1142,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1154,27 +1196,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1227,9 +1250,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1238,12 +1258,11 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -1274,6 +1293,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1592,7 +1675,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C26"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1642,164 +1725,164 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="22" t="s">
         <v>158</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="64" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="22" t="s">
         <v>160</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="48"/>
+      <c r="C8" s="64"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="22" t="s">
         <v>161</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="48"/>
+      <c r="C9" s="64"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="22" t="s">
         <v>162</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="48"/>
+      <c r="C10" s="64"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="22" t="s">
         <v>163</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="48"/>
+      <c r="C11" s="64"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="22" t="s">
         <v>164</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="48"/>
+      <c r="C12" s="64"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="22" t="s">
         <v>165</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="48"/>
+      <c r="C13" s="64"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="22" t="s">
         <v>166</v>
       </c>
       <c r="B14" s="3" t="b">
         <f>B4</f>
         <v>1</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="64"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="22" t="s">
         <v>167</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="48"/>
+      <c r="C15" s="64"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="22" t="s">
         <v>168</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="48"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="22" t="s">
         <v>169</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="48"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="22" t="s">
         <v>170</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="48"/>
+      <c r="C18" s="64"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="22" t="s">
         <v>171</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="48"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="22" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="48"/>
+      <c r="C20" s="64"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+      <c r="A21" s="22" t="s">
         <v>172</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="64"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="22" t="s">
         <v>173</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="48"/>
+      <c r="C22" s="64"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="22" t="s">
         <v>174</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="48"/>
+      <c r="C23" s="64"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="22" t="s">
         <v>175</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="48"/>
+      <c r="C24" s="64"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="22" t="s">
         <v>176</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="48"/>
+      <c r="C25" s="64"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="22" t="s">
         <v>177</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="48"/>
+      <c r="C26" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C7:C26"/>
   </mergeCells>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be Blank!!" sqref="B1:B8" xr:uid="{B846AA22-D9D2-4453-9859-7A67581CA1E5}">
       <formula1>1</formula1>
       <formula2>100</formula2>
@@ -1809,906 +1892,906 @@
     <hyperlink ref="B3" r:id="rId1" xr:uid="{5C88A4FD-1FB2-4D56-821D-4D7F3F913C21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FBC5B-DDF7-4192-94E1-360D45BEDC8B}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.77734375" style="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.6640625" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" style="53" customWidth="1"/>
-    <col min="6" max="6" width="6" style="53" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5546875" style="53" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" style="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" style="53" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" style="53" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="8.88671875" style="53"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="75" t="s">
+      <c r="E1" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="75" t="s">
+      <c r="I1" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="J1" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="K1" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="L1" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="M1" s="73" t="s">
+      <c r="M1" s="58" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="73" t="s">
+      <c r="N1" s="58" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="57" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="68"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="G3" s="55" t="s">
+      <c r="G3" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="58"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="52"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="38"/>
     </row>
     <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="55" t="s">
+      <c r="G4" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="H4" s="58"/>
-      <c r="I4" s="69"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="52"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D5" s="65" t="s">
+      <c r="D5" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="66"/>
-      <c r="F5" s="57" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="52"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="38"/>
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="55" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="58"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="52"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="38"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="66"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="55" t="s">
+      <c r="E7" s="51"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="52"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="55" t="s">
+      <c r="F8" s="44"/>
+      <c r="G8" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="58"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="52"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="38"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D9" s="65" t="s">
+      <c r="D9" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="55" t="s">
+      <c r="F9" s="44"/>
+      <c r="G9" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="52"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="38"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="55" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="71" t="s">
+      <c r="H10" s="43"/>
+      <c r="I10" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="52"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="38"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D11" s="65" t="s">
+      <c r="D11" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="E11" s="66"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="55" t="s">
+      <c r="E11" s="51"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="71" t="s">
+      <c r="H11" s="43"/>
+      <c r="I11" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="52"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="38"/>
     </row>
     <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D12" s="65" t="s">
+      <c r="D12" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="66"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="55" t="s">
+      <c r="E12" s="51"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="58" t="s">
+      <c r="H12" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="I12" s="71" t="s">
+      <c r="I12" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="52"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="38"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" s="65" t="s">
+      <c r="D13" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="66"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="55" t="s">
+      <c r="E13" s="51"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="58" t="s">
+      <c r="H13" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I13" s="71" t="s">
+      <c r="I13" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J13" s="52"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="52"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="38"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="55" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="71" t="s">
+      <c r="I14" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J14" s="52"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="52"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="38"/>
     </row>
     <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D15" s="65" t="s">
+      <c r="D15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="66"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="55" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="58" t="s">
+      <c r="H15" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="I15" s="71" t="s">
+      <c r="I15" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J15" s="52"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="52"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="38"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D16" s="65" t="s">
+      <c r="D16" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="66"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="55" t="s">
+      <c r="E16" s="51"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="40" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="58" t="s">
+      <c r="H16" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="I16" s="71" t="s">
+      <c r="I16" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J16" s="52"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="52"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="38"/>
     </row>
     <row r="17" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D17" s="65" t="s">
+      <c r="D17" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="66"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="55" t="s">
+      <c r="E17" s="51"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="H17" s="58" t="s">
+      <c r="H17" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="71" t="s">
+      <c r="I17" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J17" s="52"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="52"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="55" t="s">
+      <c r="F18" s="44"/>
+      <c r="G18" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="H18" s="58" t="s">
+      <c r="H18" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="I18" s="71" t="s">
+      <c r="I18" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J18" s="52"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="52"/>
+      <c r="J18" s="38"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="38"/>
     </row>
     <row r="19" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D19" s="65" t="s">
+      <c r="D19" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="66"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="55" t="s">
+      <c r="E19" s="51"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="H19" s="58" t="s">
+      <c r="H19" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="I19" s="71" t="s">
+      <c r="I19" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J19" s="52"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="52"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="38"/>
     </row>
     <row r="20" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D20" s="65" t="s">
+      <c r="D20" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="66"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="55" t="s">
+      <c r="E20" s="51"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="H20" s="58" t="s">
+      <c r="H20" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="I20" s="71" t="s">
+      <c r="I20" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J20" s="52"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="52"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="38"/>
     </row>
     <row r="21" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="65" t="s">
+      <c r="D21" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="66"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="55" t="s">
+      <c r="E21" s="51"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="H21" s="58" t="s">
+      <c r="H21" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="I21" s="71"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="70" t="s">
+      <c r="I21" s="56"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="L21" s="52"/>
+      <c r="L21" s="38"/>
     </row>
     <row r="22" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="55" t="s">
+      <c r="E22" s="51"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="40" t="s">
         <v>123</v>
       </c>
-      <c r="H22" s="58" t="s">
+      <c r="H22" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="52"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="38"/>
     </row>
     <row r="23" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D23" s="65" t="s">
+      <c r="D23" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="66"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="55" t="s">
+      <c r="E23" s="51"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="H23" s="58" t="s">
+      <c r="H23" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I23" s="71"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="52"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="38"/>
     </row>
     <row r="24" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D24" s="65" t="s">
+      <c r="D24" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="66"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="55" t="s">
+      <c r="E24" s="51"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="H24" s="58" t="s">
+      <c r="H24" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I24" s="71"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="38"/>
     </row>
     <row r="25" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D25" s="65" t="s">
+      <c r="D25" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="66"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="55" t="s">
+      <c r="E25" s="51"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="H25" s="58" t="s">
+      <c r="H25" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="I25" s="71"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="70" t="s">
+      <c r="I25" s="56"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="L25" s="52"/>
+      <c r="L25" s="38"/>
     </row>
     <row r="26" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="55" t="s">
+      <c r="E26" s="51"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="H26" s="58" t="s">
+      <c r="H26" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="71"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70" t="s">
+      <c r="I26" s="56"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="27" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D27" s="65" t="s">
+      <c r="D27" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="66"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="55" t="s">
+      <c r="E27" s="51"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="H27" s="58"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70" t="s">
+      <c r="H27" s="43"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="38"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="28" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D28" s="65" t="s">
+      <c r="D28" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="66"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="55" t="s">
+      <c r="E28" s="51"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="58"/>
-      <c r="I28" s="71" t="s">
+      <c r="H28" s="43"/>
+      <c r="I28" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="J28" s="52"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
     </row>
     <row r="29" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D29" s="78" t="s">
+      <c r="D29" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="66"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="55" t="s">
+      <c r="E29" s="51"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="H29" s="58"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
     </row>
     <row r="30" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="55" t="s">
+      <c r="E30" s="51"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="H30" s="58"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
     </row>
     <row r="31" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D31" s="65" t="s">
+      <c r="D31" s="50" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="55" t="s">
+      <c r="F31" s="44"/>
+      <c r="G31" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="H31" s="58"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="52"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70" t="s">
+      <c r="H31" s="43"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="32" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="55" t="s">
+      <c r="E32" s="39"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="H32" s="58"/>
-      <c r="I32" s="54"/>
-      <c r="K32" s="54"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="39"/>
+      <c r="K32" s="39"/>
     </row>
     <row r="33" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="54"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="55" t="s">
+      <c r="E33" s="39"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="H33" s="58"/>
-      <c r="I33" s="54"/>
-      <c r="K33" s="54"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="39"/>
+      <c r="K33" s="39"/>
     </row>
     <row r="34" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D34" s="56" t="s">
+      <c r="D34" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="55" t="s">
+      <c r="E34" s="39"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="H34" s="58"/>
-      <c r="I34" s="54"/>
-      <c r="K34" s="54"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="39"/>
+      <c r="K34" s="39"/>
     </row>
     <row r="35" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="55" t="s">
+      <c r="E35" s="39"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="H35" s="58"/>
-      <c r="I35" s="54"/>
-      <c r="K35" s="54"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="39"/>
+      <c r="K35" s="39"/>
     </row>
     <row r="36" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="55" t="s">
+      <c r="E36" s="39"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="H36" s="58"/>
-      <c r="I36" s="54"/>
-      <c r="K36" s="54"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="39"/>
+      <c r="K36" s="39"/>
     </row>
     <row r="37" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D37" s="56" t="s">
+      <c r="D37" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="54"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="55" t="s">
+      <c r="E37" s="39"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="H37" s="58"/>
-      <c r="I37" s="54"/>
-      <c r="K37" s="54"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="39"/>
+      <c r="K37" s="39"/>
     </row>
     <row r="38" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D38" s="56" t="s">
+      <c r="D38" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="55" t="s">
+      <c r="E38" s="39"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="H38" s="58" t="s">
+      <c r="H38" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="I38" s="54"/>
-      <c r="K38" s="54"/>
+      <c r="I38" s="39"/>
+      <c r="K38" s="39"/>
     </row>
     <row r="39" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D39" s="56" t="s">
+      <c r="D39" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="E39" s="54"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="55" t="s">
+      <c r="E39" s="39"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="H39" s="58" t="s">
+      <c r="H39" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I39" s="54"/>
-      <c r="K39" s="54"/>
+      <c r="I39" s="39"/>
+      <c r="K39" s="39"/>
     </row>
     <row r="40" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D40" s="56" t="s">
+      <c r="D40" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="59"/>
-      <c r="G40" s="55" t="s">
+      <c r="E40" s="39"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="H40" s="58" t="s">
+      <c r="H40" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="I40" s="54"/>
-      <c r="K40" s="54"/>
+      <c r="I40" s="39"/>
+      <c r="K40" s="39"/>
     </row>
     <row r="41" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D41" s="56" t="s">
+      <c r="D41" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="59"/>
-      <c r="G41" s="55" t="s">
+      <c r="E41" s="39"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="H41" s="58" t="s">
+      <c r="H41" s="43" t="s">
         <v>196</v>
       </c>
-      <c r="I41" s="54"/>
-      <c r="K41" s="54"/>
+      <c r="I41" s="39"/>
+      <c r="K41" s="39"/>
     </row>
     <row r="42" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D42" s="56" t="s">
+      <c r="D42" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="55" t="s">
+      <c r="E42" s="39"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="H42" s="58" t="s">
+      <c r="H42" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="I42" s="54"/>
-      <c r="K42" s="54"/>
+      <c r="I42" s="39"/>
+      <c r="K42" s="39"/>
     </row>
     <row r="43" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D43" s="56" t="s">
+      <c r="D43" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="54"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="55" t="s">
+      <c r="E43" s="39"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="H43" s="58" t="s">
+      <c r="H43" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="I43" s="54"/>
-      <c r="K43" s="54"/>
+      <c r="I43" s="39"/>
+      <c r="K43" s="39"/>
     </row>
     <row r="44" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D44" s="56" t="s">
+      <c r="D44" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="55" t="s">
+      <c r="E44" s="39"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="H44" s="58" t="s">
+      <c r="H44" s="43" t="s">
         <v>198</v>
       </c>
-      <c r="I44" s="54"/>
-      <c r="K44" s="54"/>
+      <c r="I44" s="39"/>
+      <c r="K44" s="39"/>
     </row>
     <row r="45" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D45" s="56" t="s">
+      <c r="D45" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="55" t="s">
+      <c r="E45" s="39"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="H45" s="58" t="s">
+      <c r="H45" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="I45" s="54"/>
-      <c r="K45" s="54"/>
+      <c r="I45" s="39"/>
+      <c r="K45" s="39"/>
     </row>
     <row r="46" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="55" t="s">
+      <c r="E46" s="39"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="H46" s="58" t="s">
+      <c r="H46" s="43" t="s">
         <v>200</v>
       </c>
-      <c r="I46" s="54"/>
-      <c r="K46" s="54"/>
+      <c r="I46" s="39"/>
+      <c r="K46" s="39"/>
     </row>
     <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F47" s="59"/>
-      <c r="G47" s="55" t="s">
+      <c r="F47" s="44"/>
+      <c r="G47" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="H47" s="58" t="s">
+      <c r="H47" s="43" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F48" s="59"/>
-      <c r="G48" s="55" t="s">
+      <c r="F48" s="44"/>
+      <c r="G48" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="H48" s="58" t="s">
+      <c r="H48" s="43" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="49" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F49" s="59"/>
-      <c r="G49" s="55" t="s">
+      <c r="F49" s="44"/>
+      <c r="G49" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="H49" s="58" t="s">
+      <c r="H49" s="43" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F50" s="59"/>
-      <c r="G50" s="55" t="s">
+      <c r="F50" s="44"/>
+      <c r="G50" s="40" t="s">
         <v>151</v>
       </c>
-      <c r="H50" s="58" t="s">
+      <c r="H50" s="43" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="51" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F51" s="59"/>
-      <c r="G51" s="55" t="s">
+      <c r="F51" s="44"/>
+      <c r="G51" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="H51" s="58" t="s">
+      <c r="H51" s="43" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F52" s="59"/>
-      <c r="G52" s="55" t="s">
+      <c r="F52" s="44"/>
+      <c r="G52" s="40" t="s">
         <v>153</v>
       </c>
-      <c r="H52" s="58" t="s">
+      <c r="H52" s="43" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="53" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F53" s="59"/>
-      <c r="G53" s="55" t="s">
+      <c r="F53" s="44"/>
+      <c r="G53" s="40" t="s">
         <v>154</v>
       </c>
-      <c r="H53" s="58"/>
+      <c r="H53" s="43"/>
     </row>
     <row r="54" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F54" s="59"/>
-      <c r="H54" s="58"/>
+      <c r="F54" s="44"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F55" s="60"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="62"/>
+      <c r="F55" s="45"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="C1" xr:uid="{B3986D3C-CEA6-4963-A82C-C581A50DA9C2}">
       <formula1>-1</formula1>
     </dataValidation>
@@ -2766,15 +2849,1808 @@
     <hyperlink ref="G28" r:id="rId50" location="locator-assertions-to-be-attached" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-attached" xr:uid="{ED716848-ECAE-41E3-8458-5893833FF6A7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB6AC3C-1F6F-454E-8ECB-F3E18E6A0BC8}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" customWidth="1"/>
+    <col min="16" max="16" width="34.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10">
+        <v>8</v>
+      </c>
+      <c r="I1" s="10">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11">
+        <v>15</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" s="35" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="18"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="15">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26">
+        <v>30000</v>
+      </c>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="15">
+        <v>3</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26">
+        <v>15000</v>
+      </c>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
+    </row>
+    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="15">
+        <v>4</v>
+      </c>
+      <c r="B6" s="26"/>
+      <c r="C6" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15">
+        <v>5</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="29">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="29"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
+    </row>
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15">
+        <v>6</v>
+      </c>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="30"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="15">
+        <v>7</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="33"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="15">
+        <v>8</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="33"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
+        <v>9</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="31"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="15">
+        <v>10</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="15">
+        <v>11</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="32"/>
+      <c r="F13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="31">
+        <v>30000</v>
+      </c>
+      <c r="M13" s="31"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="15">
+        <v>12</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="31">
+        <v>30000</v>
+      </c>
+      <c r="M14" s="31"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="15">
+        <v>14</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="31">
+        <v>30000</v>
+      </c>
+      <c r="M16" s="31"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="15">
+        <v>15</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="L17" s="31">
+        <v>1000</v>
+      </c>
+      <c r="M17" s="31"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="15">
+        <v>16</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" s="31">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="31"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="15">
+        <v>17</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="32"/>
+      <c r="F19" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" s="31">
+        <v>1000</v>
+      </c>
+      <c r="M19" s="31"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="15">
+        <v>18</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="33"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="15">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="15">
+        <v>20</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29">
+        <v>20000</v>
+      </c>
+      <c r="M22" s="29"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="30"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="15">
+        <v>21</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29">
+        <v>20000</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E1 E3:E23" xr:uid="{7AE1121B-6EA9-4ED9-96C4-0B6428E1A15A}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E2" xr:uid="{3B9C1AFF-F374-4F14-BA78-AAAB203B9D6C}">
+      <formula1>-1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFE658E-302D-48C9-B17B-A2D08CEFB648}">
+  <dimension ref="A1:P23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.21875" style="66" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="66" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" style="66" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="66" customWidth="1"/>
+    <col min="5" max="14" width="8.88671875" style="66"/>
+    <col min="15" max="15" width="9.44140625" style="66" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" style="66" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="66"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9">
+        <v>1</v>
+      </c>
+      <c r="B1" s="10">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10">
+        <v>5</v>
+      </c>
+      <c r="F1" s="10">
+        <v>6</v>
+      </c>
+      <c r="G1" s="10">
+        <v>7</v>
+      </c>
+      <c r="H1" s="10">
+        <v>8</v>
+      </c>
+      <c r="I1" s="10">
+        <v>13</v>
+      </c>
+      <c r="J1" s="10">
+        <v>9</v>
+      </c>
+      <c r="K1" s="10">
+        <v>10</v>
+      </c>
+      <c r="L1" s="10">
+        <v>11</v>
+      </c>
+      <c r="M1" s="10">
+        <v>12</v>
+      </c>
+      <c r="N1" s="11">
+        <v>15</v>
+      </c>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+    </row>
+    <row r="2" spans="1:16" s="71" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="73" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="73" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="73" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="73" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="86">
+        <v>1</v>
+      </c>
+      <c r="B3" s="87" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="87">
+        <v>0</v>
+      </c>
+      <c r="F3" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87">
+        <v>30000</v>
+      </c>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+    </row>
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="86">
+        <v>2</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="87">
+        <v>0</v>
+      </c>
+      <c r="F4" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87">
+        <v>15000</v>
+      </c>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+    </row>
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="86">
+        <v>3</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="87"/>
+      <c r="D5" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E5" s="87">
+        <v>2</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87">
+        <v>10000</v>
+      </c>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="86">
+        <v>4</v>
+      </c>
+      <c r="B6" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="86">
+        <v>5</v>
+      </c>
+      <c r="B7" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="87">
+        <v>0</v>
+      </c>
+      <c r="F7" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" s="87">
+        <v>30000</v>
+      </c>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87" t="s">
+        <v>84</v>
+      </c>
+      <c r="P7" s="87"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="86">
+        <v>6</v>
+      </c>
+      <c r="B8" s="87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="87">
+        <v>0</v>
+      </c>
+      <c r="F8" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="87">
+        <v>30000</v>
+      </c>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="82"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="82"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
+      <c r="O11" s="82"/>
+      <c r="P11" s="82"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="81"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="82"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="82"/>
+      <c r="K13" s="82"/>
+      <c r="L13" s="82"/>
+      <c r="M13" s="82"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="82"/>
+      <c r="P13" s="82"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="81"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
+      <c r="O14" s="82"/>
+      <c r="P14" s="82"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="81"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="82"/>
+      <c r="P15" s="82"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="81"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="82"/>
+      <c r="I16" s="82"/>
+      <c r="J16" s="82"/>
+      <c r="K16" s="82"/>
+      <c r="L16" s="82"/>
+      <c r="M16" s="82"/>
+      <c r="N16" s="82"/>
+      <c r="O16" s="82"/>
+      <c r="P16" s="82"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="78"/>
+      <c r="P17" s="80"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="65"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="67"/>
+      <c r="P18" s="68"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="65"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="67"/>
+      <c r="J19" s="67"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="67"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="67"/>
+      <c r="P19" s="68"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="65"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+      <c r="I20" s="67"/>
+      <c r="J20" s="67"/>
+      <c r="K20" s="67"/>
+      <c r="L20" s="67"/>
+      <c r="M20" s="67"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="67"/>
+      <c r="P20" s="68"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="65"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="67"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="65"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="67"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="68"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="65"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="68"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="68"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E2" xr:uid="{6DB529DC-A610-444C-A7D3-7D6F556CABFA}">
+      <formula1>-1</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E1" xr:uid="{B465AA38-E1BF-4F80-9ADE-DB9F2FBAE085}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576" xr:uid="{975DB6A3-119B-4B6F-8FC6-35B395C8AC4E}">
+      <formula1>-1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A922C3-ABB6-4CAB-892C-785E30C0104C}">
+  <dimension ref="A1:P16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5">
+        <v>6</v>
+      </c>
+      <c r="G1" s="4">
+        <v>7</v>
+      </c>
+      <c r="H1" s="5">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5">
+        <v>9</v>
+      </c>
+      <c r="J1" s="4">
+        <v>10</v>
+      </c>
+      <c r="K1" s="5">
+        <v>11</v>
+      </c>
+      <c r="L1" s="5">
+        <v>12</v>
+      </c>
+      <c r="M1" s="4">
+        <v>13</v>
+      </c>
+      <c r="N1" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="35" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="88">
+        <v>1</v>
+      </c>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+    </row>
+    <row r="4" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="88">
+        <v>2</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91">
+        <v>30000</v>
+      </c>
+      <c r="M4" s="91"/>
+      <c r="N4" s="92"/>
+      <c r="O4" s="92"/>
+      <c r="P4" s="92"/>
+    </row>
+    <row r="5" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="88">
+        <v>3</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
+      <c r="L5" s="91">
+        <v>15000</v>
+      </c>
+      <c r="M5" s="91"/>
+      <c r="N5" s="92"/>
+      <c r="O5" s="92"/>
+      <c r="P5" s="92"/>
+    </row>
+    <row r="6" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="88">
+        <v>4</v>
+      </c>
+      <c r="B6" s="91"/>
+      <c r="C6" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="91"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="92"/>
+      <c r="O6" s="92"/>
+      <c r="P6" s="92"/>
+    </row>
+    <row r="7" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="88">
+        <v>5</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="91"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="91"/>
+      <c r="K7" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="91">
+        <v>10000</v>
+      </c>
+      <c r="M7" s="91"/>
+      <c r="N7" s="92"/>
+      <c r="O7" s="92"/>
+      <c r="P7" s="92"/>
+    </row>
+    <row r="8" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="88">
+        <v>6</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="91"/>
+      <c r="D8" s="93" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="93"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="91"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="91"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="92"/>
+      <c r="O8" s="92"/>
+      <c r="P8" s="92"/>
+    </row>
+    <row r="9" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="88">
+        <v>7</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="91"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+    </row>
+    <row r="10" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="88">
+        <v>9</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="91"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+      <c r="K10" s="91" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="91"/>
+      <c r="M10" s="91"/>
+      <c r="N10" s="92"/>
+      <c r="O10" s="92"/>
+      <c r="P10" s="92"/>
+    </row>
+    <row r="11" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="88">
+        <v>14</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="91"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="91" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="91"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+    </row>
+    <row r="12" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="88">
+        <v>15</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="91"/>
+      <c r="D12" s="91"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="91"/>
+      <c r="J12" s="91"/>
+      <c r="K12" s="91"/>
+      <c r="L12" s="91"/>
+      <c r="M12" s="91"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+    </row>
+    <row r="13" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="88">
+        <v>16</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="91"/>
+      <c r="F13" s="91" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="91"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+      <c r="K13" s="91"/>
+      <c r="L13" s="91">
+        <v>20000</v>
+      </c>
+      <c r="M13" s="91"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+    </row>
+    <row r="14" spans="1:16" s="66" customFormat="1" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="88">
+        <v>17</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95"/>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="J14" s="96" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95">
+        <v>20000</v>
+      </c>
+      <c r="M14" s="95"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
+        <v>18</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E3:E14 E1" xr:uid="{BE3AD172-1DB4-4842-9BE1-35C8C17CA1D8}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E2" xr:uid="{4EDDCD30-E6A8-4093-8218-4F04A40F8965}">
+      <formula1>-1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88502B4-0A6C-4340-8CEE-AB793B0A4CE5}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2792,140 +4668,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22">
+      <c r="A1" s="9">
         <v>1</v>
       </c>
-      <c r="B1" s="23">
+      <c r="B1" s="10">
         <v>2</v>
       </c>
-      <c r="C1" s="23">
+      <c r="C1" s="10">
         <v>3</v>
       </c>
-      <c r="D1" s="23">
+      <c r="D1" s="10">
         <v>4</v>
       </c>
-      <c r="E1" s="23">
+      <c r="E1" s="10">
         <v>5</v>
       </c>
-      <c r="F1" s="23">
+      <c r="F1" s="10">
         <v>6</v>
       </c>
-      <c r="G1" s="23">
+      <c r="G1" s="10">
         <v>7</v>
       </c>
-      <c r="H1" s="23">
+      <c r="H1" s="10">
         <v>8</v>
       </c>
-      <c r="I1" s="23">
+      <c r="I1" s="10">
         <v>13</v>
       </c>
-      <c r="J1" s="23">
+      <c r="J1" s="10">
         <v>9</v>
       </c>
-      <c r="K1" s="23">
+      <c r="K1" s="10">
         <v>10</v>
       </c>
-      <c r="L1" s="23">
+      <c r="L1" s="10">
         <v>11</v>
       </c>
-      <c r="M1" s="23">
+      <c r="M1" s="10">
         <v>12</v>
       </c>
-      <c r="N1" s="24">
+      <c r="N1" s="11">
         <v>15</v>
       </c>
-      <c r="O1" s="36">
+      <c r="O1" s="23">
         <v>16</v>
       </c>
-      <c r="P1" s="36">
+      <c r="P1" s="23">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="25" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
+      <c r="A4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2965,1201 +4841,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB6AC3C-1F6F-454E-8ECB-F3E18E6A0BC8}">
-  <dimension ref="A1:P23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1"/>
-    <col min="4" max="4" width="41" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
-    <col min="16" max="16" width="34.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22">
-        <v>1</v>
-      </c>
-      <c r="B1" s="23">
-        <v>2</v>
-      </c>
-      <c r="C1" s="23">
-        <v>3</v>
-      </c>
-      <c r="D1" s="23">
-        <v>4</v>
-      </c>
-      <c r="E1" s="23">
-        <v>5</v>
-      </c>
-      <c r="F1" s="23">
-        <v>6</v>
-      </c>
-      <c r="G1" s="23">
-        <v>7</v>
-      </c>
-      <c r="H1" s="23">
-        <v>8</v>
-      </c>
-      <c r="I1" s="23">
-        <v>13</v>
-      </c>
-      <c r="J1" s="23">
-        <v>9</v>
-      </c>
-      <c r="K1" s="23">
-        <v>10</v>
-      </c>
-      <c r="L1" s="23">
-        <v>11</v>
-      </c>
-      <c r="M1" s="23">
-        <v>12</v>
-      </c>
-      <c r="N1" s="24">
-        <v>15</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="2" spans="1:16" s="49" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28">
-        <v>1</v>
-      </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="31"/>
-    </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28">
-        <v>2</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39">
-        <v>30000</v>
-      </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
-    </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="28">
-        <v>3</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40"/>
-    </row>
-    <row r="6" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28">
-        <v>4</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
-    </row>
-    <row r="7" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="28">
-        <v>5</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="42">
-        <v>10000</v>
-      </c>
-      <c r="M7" s="42"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
-    </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="28">
-        <v>6</v>
-      </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
-      <c r="M8" s="42"/>
-      <c r="N8" s="43"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43"/>
-    </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="28">
-        <v>7</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="44"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="46"/>
-    </row>
-    <row r="10" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="28">
-        <v>8</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="46"/>
-    </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="28">
-        <v>9</v>
-      </c>
-      <c r="B11" s="44"/>
-      <c r="C11" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="44"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="44"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="44"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="44"/>
-      <c r="P11" s="46"/>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="28">
-        <v>10</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="46"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="46"/>
-    </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="28">
-        <v>11</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="45"/>
-      <c r="F13" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="44">
-        <v>30000</v>
-      </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="44" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="46"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="28">
-        <v>12</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44" t="s">
-        <v>88</v>
-      </c>
-      <c r="L14" s="44">
-        <v>30000</v>
-      </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="28">
-        <v>13</v>
-      </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="41" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="46"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="28">
-        <v>14</v>
-      </c>
-      <c r="B16" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="44">
-        <v>30000</v>
-      </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="46"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="28">
-        <v>15</v>
-      </c>
-      <c r="B17" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45" t="s">
-        <v>181</v>
-      </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="L17" s="44">
-        <v>1000</v>
-      </c>
-      <c r="M17" s="44"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="46"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="28">
-        <v>16</v>
-      </c>
-      <c r="B18" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44" t="s">
-        <v>185</v>
-      </c>
-      <c r="L18" s="44">
-        <v>1000</v>
-      </c>
-      <c r="M18" s="44"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="46" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="28">
-        <v>17</v>
-      </c>
-      <c r="B19" s="44" t="s">
-        <v>179</v>
-      </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="45"/>
-      <c r="F19" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44" t="s">
-        <v>186</v>
-      </c>
-      <c r="L19" s="44">
-        <v>1000</v>
-      </c>
-      <c r="M19" s="44"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="46"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="28">
-        <v>18</v>
-      </c>
-      <c r="B20" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="46"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="28">
-        <v>19</v>
-      </c>
-      <c r="B21" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="46"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="28">
-        <v>20</v>
-      </c>
-      <c r="B22" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42">
-        <v>20000</v>
-      </c>
-      <c r="M22" s="42"/>
-      <c r="N22" s="43"/>
-      <c r="O22" s="42"/>
-      <c r="P22" s="43"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="28">
-        <v>21</v>
-      </c>
-      <c r="B23" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42">
-        <v>20000</v>
-      </c>
-      <c r="M23" s="42"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="43"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E1 E3:E23" xr:uid="{7AE1121B-6EA9-4ED9-96C4-0B6428E1A15A}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E2" xr:uid="{3B9C1AFF-F374-4F14-BA78-AAAB203B9D6C}">
-      <formula1>-1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A922C3-ABB6-4CAB-892C-785E30C0104C}">
-  <dimension ref="A1:P16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5">
-        <v>2</v>
-      </c>
-      <c r="C1" s="5">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4">
-        <v>4</v>
-      </c>
-      <c r="E1" s="5">
-        <v>5</v>
-      </c>
-      <c r="F1" s="5">
-        <v>6</v>
-      </c>
-      <c r="G1" s="4">
-        <v>7</v>
-      </c>
-      <c r="H1" s="5">
-        <v>8</v>
-      </c>
-      <c r="I1" s="5">
-        <v>9</v>
-      </c>
-      <c r="J1" s="4">
-        <v>10</v>
-      </c>
-      <c r="K1" s="5">
-        <v>11</v>
-      </c>
-      <c r="L1" s="5">
-        <v>12</v>
-      </c>
-      <c r="M1" s="4">
-        <v>13</v>
-      </c>
-      <c r="N1" s="5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="49" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J2" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K2" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="38" t="s">
-        <v>187</v>
-      </c>
-      <c r="P2" s="38" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11">
-        <v>30000</v>
-      </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>3</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="14">
-        <v>10000</v>
-      </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
-        <v>14</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
-        <v>15</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>16</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14">
-        <v>20000</v>
-      </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>17</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19">
-        <v>20000</v>
-      </c>
-      <c r="M14" s="19"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
-        <v>18</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E3:E14 E1" xr:uid="{BE3AD172-1DB4-4842-9BE1-35C8C17CA1D8}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="E2" xr:uid="{4EDDCD30-E6A8-4093-8218-4F04A40F8965}">
-      <formula1>-1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/excel/Template.xlsx
+++ b/excel/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\AutomationTestSuite\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\WebscrapingSuite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293183CA-7088-4E17-9E16-8344902855FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B5C7B-8A47-43BF-83EE-8E415685F883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="221">
   <si>
     <t>Test Name</t>
   </si>
@@ -164,9 +164,6 @@
     <t>close tab</t>
   </si>
   <si>
-    <t>loop new tab</t>
-  </si>
-  <si>
     <t>open link</t>
   </si>
   <si>
@@ -212,9 +209,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>Element ID</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -684,6 +678,21 @@
   </si>
   <si>
     <t>Feature</t>
+  </si>
+  <si>
+    <t>loop open link in new tab</t>
+  </si>
+  <si>
+    <t>loop go to new tab</t>
+  </si>
+  <si>
+    <t>go back</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>loop open link</t>
   </si>
 </sst>
 </file>
@@ -865,7 +874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1123,41 +1132,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1246,12 +1220,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1327,22 +1325,14 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1355,37 +1345,23 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1395,11 +1371,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1409,12 +1381,23 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" readingOrder="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1733,7 +1716,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1747,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1763,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1771,15 +1754,15 @@
         <v>4</v>
       </c>
       <c r="B4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1793,154 +1776,154 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="64" t="s">
-        <v>158</v>
+      <c r="C7" s="87" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="64"/>
+      <c r="C8" s="87"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="64"/>
+      <c r="C9" s="87"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="64"/>
+      <c r="C10" s="87"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="64"/>
+      <c r="C11" s="87"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="64"/>
+      <c r="C12" s="87"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="64"/>
+      <c r="C13" s="87"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" s="3" t="b">
         <f>B4</f>
-        <v>1</v>
-      </c>
-      <c r="C14" s="64"/>
+        <v>0</v>
+      </c>
+      <c r="C14" s="87"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="64"/>
+      <c r="C15" s="87"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="64"/>
+      <c r="C16" s="87"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="64"/>
+      <c r="C17" s="87"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="64"/>
+      <c r="C18" s="87"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="64"/>
+      <c r="C19" s="87"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="64"/>
+      <c r="C20" s="87"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="64"/>
+      <c r="C21" s="87"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="64"/>
+      <c r="C22" s="87"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="64"/>
+      <c r="C23" s="87"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="64"/>
+      <c r="C24" s="87"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="64"/>
+      <c r="C25" s="87"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="64"/>
+      <c r="C26" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C7:C26"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="textLength" showInputMessage="1" showErrorMessage="1" errorTitle="Cannot be Blank!!" sqref="B1:B8" xr:uid="{B846AA22-D9D2-4453-9859-7A67581CA1E5}">
       <formula1>1</formula1>
       <formula2>100</formula2>
@@ -1958,9 +1941,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FBC5B-DDF7-4192-94E1-360D45BEDC8B}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1968,943 +1951,965 @@
     <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="4.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="58" t="s">
+      <c r="H1" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="K1" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="L1" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="M1" s="56" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="56" t="s">
-        <v>187</v>
+      <c r="M1" s="48" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" s="48" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="47"/>
-      <c r="F2" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>87</v>
-      </c>
-      <c r="H2" s="41"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="51"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="39" t="s">
+        <v>97</v>
+      </c>
+      <c r="K2" s="38" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" s="40"/>
     </row>
     <row r="3" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="48" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="G3" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="41"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="36"/>
+      <c r="L3" s="40"/>
     </row>
     <row r="4" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="40"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D5" s="83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" s="38" t="s">
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D6" s="83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="46"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="36"/>
-    </row>
-    <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D5" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="49"/>
-      <c r="F5" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="38" t="s">
+      <c r="L6" s="40"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D7" s="83" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="46"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D6" s="48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="38" t="s">
+      <c r="L7" s="40"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D8" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="41"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="36"/>
-    </row>
-    <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D7" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="38" t="s">
+      <c r="L8" s="40"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D9" s="83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="H7" s="41"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="36"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D8" s="48" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="38" t="s">
+      <c r="L9" s="40"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D10" s="83" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G10" s="36"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="41"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D9" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="49" t="s">
+      <c r="L10" s="40"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="83" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="36"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="L11" s="40"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D12" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="36"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D13" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="36"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="42"/>
-      <c r="G9" s="38" t="s">
+      <c r="L13" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D14" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D15" s="83" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="36"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="L15" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D16" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="40" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D17" s="83" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="36"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D18" s="83" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="41"/>
+      <c r="K18" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="L18" s="40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D19" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" s="36"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="L19" s="40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D20" s="83" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D21" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="36"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D22" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="L22" s="40" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D24" s="83" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="L24" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="H9" s="41"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="36"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D10" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="H10" s="41"/>
-      <c r="I10" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="36"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D11" s="48" t="s">
+    </row>
+    <row r="25" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D25" s="83" t="s">
+        <v>220</v>
+      </c>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D26" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" s="36"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="L26" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D27" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="J27" s="41"/>
+      <c r="K27" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="L27" s="40"/>
+    </row>
+    <row r="28" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D28" s="83" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="K28" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="L28" s="40"/>
+    </row>
+    <row r="29" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D29" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="36"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="L29" s="40"/>
+    </row>
+    <row r="30" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D30" s="83" t="s">
+        <v>216</v>
+      </c>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="L30" s="40"/>
+    </row>
+    <row r="31" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D31" s="83" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="L31" s="40"/>
+    </row>
+    <row r="32" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D32" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="46"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="L32" s="40"/>
+    </row>
+    <row r="33" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D33" s="84" t="s">
+        <v>142</v>
+      </c>
+      <c r="E33" s="46" t="s">
+        <v>191</v>
+      </c>
+      <c r="F33" s="46"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" s="41"/>
+      <c r="K33" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="L33" s="40"/>
+    </row>
+    <row r="34" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D34" s="83" t="s">
+        <v>188</v>
+      </c>
+      <c r="E34" s="46"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="46"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="L34" s="40"/>
+    </row>
+    <row r="35" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D35" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" s="40"/>
+    </row>
+    <row r="36" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D36" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="L36" s="40"/>
+    </row>
+    <row r="37" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D37" s="85" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="L37" s="40"/>
+    </row>
+    <row r="38" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D38" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="L38" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="41"/>
-      <c r="I11" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="36"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D12" s="48" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="H12" s="41" t="s">
+    </row>
+    <row r="39" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D39" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="L39" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D40" s="85" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="L40" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D41" s="85" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L41" s="40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D42" s="85" t="s">
+        <v>30</v>
+      </c>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="L42" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="I12" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="36"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D13" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I13" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="36"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D14" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J14" s="36"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="36"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D15" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="41" t="s">
+    </row>
+    <row r="43" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D43" s="85" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D44" s="85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="L44" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="I15" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="36"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D16" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="H16" s="41" t="s">
+    </row>
+    <row r="45" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D45" s="85" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="L45" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="I16" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J16" s="36"/>
-      <c r="K16" s="53"/>
-      <c r="L16" s="36"/>
-    </row>
-    <row r="17" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D17" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J17" s="36"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="36"/>
-    </row>
-    <row r="18" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D18" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="41" t="s">
+    </row>
+    <row r="46" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D46" s="85" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="L46" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="53"/>
-      <c r="L18" s="36"/>
-    </row>
-    <row r="19" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D19" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="49"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="41" t="s">
+    </row>
+    <row r="47" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D47" s="85" t="s">
+        <v>38</v>
+      </c>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="L47" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="I19" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J19" s="36"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="36"/>
-    </row>
-    <row r="20" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D20" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="H20" s="41" t="s">
+    </row>
+    <row r="48" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D48" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="L48" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="I20" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J20" s="36"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="36"/>
-    </row>
-    <row r="21" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D21" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="49"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>200</v>
-      </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="L21" s="36"/>
-    </row>
-    <row r="22" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D22" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="49"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>201</v>
-      </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="36"/>
-    </row>
-    <row r="23" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D23" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="49"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="H23" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="36"/>
-    </row>
-    <row r="24" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D24" s="48" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="54"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="36"/>
-    </row>
-    <row r="25" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D25" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="49"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="36"/>
-    </row>
-    <row r="26" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D26" s="48" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="49"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D27" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="49"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="28" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D28" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="49"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="H28" s="41"/>
-      <c r="I28" s="54" t="s">
-        <v>202</v>
-      </c>
-      <c r="J28" s="36"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-    </row>
-    <row r="29" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D29" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="49"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="38" t="s">
-        <v>129</v>
-      </c>
-      <c r="H29" s="41"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="53"/>
-      <c r="L29" s="53"/>
-    </row>
-    <row r="30" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D30" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="49"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="38" t="s">
-        <v>130</v>
-      </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="53"/>
-      <c r="L30" s="53"/>
-    </row>
-    <row r="31" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D31" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>193</v>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="41"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D32" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="37"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" s="41"/>
-      <c r="I32" s="37"/>
-      <c r="K32" s="37"/>
-    </row>
-    <row r="33" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D33" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="37"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="38" t="s">
-        <v>133</v>
-      </c>
-      <c r="H33" s="41"/>
-      <c r="I33" s="37"/>
-      <c r="K33" s="37"/>
-    </row>
-    <row r="34" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D34" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="37"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="38" t="s">
-        <v>134</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="37"/>
-      <c r="K34" s="37"/>
-    </row>
-    <row r="35" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D35" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="37"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="H35" s="41"/>
-      <c r="I35" s="37"/>
-      <c r="K35" s="37"/>
-    </row>
-    <row r="36" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D36" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="38" t="s">
-        <v>136</v>
-      </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="37"/>
-      <c r="K36" s="37"/>
-    </row>
-    <row r="37" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D37" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="37"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="H37" s="41"/>
-      <c r="I37" s="37"/>
-      <c r="K37" s="37"/>
-    </row>
-    <row r="38" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D38" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="37"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="H38" s="41" t="s">
-        <v>194</v>
-      </c>
-      <c r="I38" s="37"/>
-      <c r="K38" s="37"/>
-    </row>
-    <row r="39" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D39" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="H39" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I39" s="37"/>
-      <c r="K39" s="37"/>
-    </row>
-    <row r="40" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D40" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="37"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="H40" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="I40" s="37"/>
-      <c r="K40" s="37"/>
-    </row>
-    <row r="41" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D41" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="37"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="41" t="s">
-        <v>195</v>
-      </c>
-      <c r="I41" s="37"/>
-      <c r="K41" s="37"/>
-    </row>
-    <row r="42" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D42" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="E42" s="37"/>
-      <c r="F42" s="42"/>
-      <c r="G42" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="H42" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="I42" s="37"/>
-      <c r="K42" s="37"/>
-    </row>
-    <row r="43" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D43" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" s="37"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="I43" s="37"/>
-      <c r="K43" s="37"/>
-    </row>
-    <row r="44" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D44" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="37"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="H44" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="I44" s="37"/>
-      <c r="K44" s="37"/>
-    </row>
-    <row r="45" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D45" s="39" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" s="37"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="H45" s="41" t="s">
-        <v>198</v>
-      </c>
-      <c r="I45" s="37"/>
-      <c r="K45" s="37"/>
-    </row>
-    <row r="46" spans="4:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D46" s="39" t="s">
+    </row>
+    <row r="49" spans="4:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D49" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="H46" s="41" t="s">
-        <v>199</v>
-      </c>
-      <c r="I46" s="37"/>
-      <c r="K46" s="37"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F47" s="42"/>
-      <c r="G47" s="38" t="s">
+      <c r="J49" s="41"/>
+      <c r="K49" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="H47" s="41" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="F48" s="42"/>
-      <c r="G48" s="38" t="s">
+      <c r="L49" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="J50" s="41"/>
+      <c r="K50" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="H48" s="41" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F49" s="42"/>
-      <c r="G49" s="38" t="s">
+      <c r="L50" s="40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="J51" s="41"/>
+      <c r="K51" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="H49" s="41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F50" s="42"/>
-      <c r="G50" s="38" t="s">
+      <c r="L51" s="40" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="J52" s="41"/>
+      <c r="K52" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="H50" s="41" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F51" s="42"/>
-      <c r="G51" s="38" t="s">
+      <c r="L52" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="J53" s="41"/>
+      <c r="K53" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="H51" s="41" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F52" s="42"/>
-      <c r="G52" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="H52" s="41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F53" s="42"/>
-      <c r="G53" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="H53" s="41"/>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.3">
-      <c r="F54" s="42"/>
-      <c r="H54" s="41"/>
-    </row>
-    <row r="55" spans="6:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F55" s="43"/>
-      <c r="G55" s="44"/>
-      <c r="H55" s="45"/>
+      <c r="L53" s="40"/>
+    </row>
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="J54" s="41"/>
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J55" s="42"/>
+      <c r="K55" s="43"/>
+      <c r="L55" s="44"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="C1" xr:uid="{B3986D3C-CEA6-4963-A82C-C581A50DA9C2}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Entry" error="Enter a whole number &gt;= 0" promptTitle="Enter a whole number&gt;= 0" sqref="C1" xr:uid="{D5DCB937-3860-4915-9C96-AC37AD9CB62E}">
       <formula1>-1</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" location="locator-assertions-to-be-attached" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-attached" xr:uid="{121A1F71-30EA-4314-8E8E-812C6DFEB9BB}"/>
-    <hyperlink ref="G29" r:id="rId2" location="locator-assertions-to-be-checked" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-checked" xr:uid="{48506CAE-695A-46C3-93FB-59BF2C35F2B5}"/>
-    <hyperlink ref="G4" r:id="rId3" location="locator-assertions-to-be-disabled" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-disabled" xr:uid="{8575D26A-7E68-461C-B795-431F0CE3055F}"/>
-    <hyperlink ref="G5" r:id="rId4" location="locator-assertions-to-be-editable" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-editable" xr:uid="{C5C53AA4-010A-4496-AA37-73BF70F3D888}"/>
-    <hyperlink ref="G6" r:id="rId5" location="locator-assertions-to-be-empty" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-empty" xr:uid="{BC4A63A3-6ED8-438F-95DB-91819572AC4F}"/>
-    <hyperlink ref="G7" r:id="rId6" location="locator-assertions-to-be-enabled" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-enabled" xr:uid="{47C49AB3-E7DC-4E39-A1D2-16521F65ECFF}"/>
-    <hyperlink ref="G8" r:id="rId7" location="locator-assertions-to-be-focused" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-focused" xr:uid="{4600E75A-1940-462E-B8BC-E2CF1D3DF895}"/>
-    <hyperlink ref="G9" r:id="rId8" location="locator-assertions-to-be-hidden" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-hidden" xr:uid="{9A157641-8760-4F0B-A19A-A139B798503F}"/>
-    <hyperlink ref="G10" r:id="rId9" location="locator-assertions-to-be-in-viewport" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-in-viewport" xr:uid="{AF0E672B-B183-433D-9F63-996ED0FB7C7F}"/>
-    <hyperlink ref="G11" r:id="rId10" location="locator-assertions-to-be-visible" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-visible" xr:uid="{12E75726-EE9E-427D-AD76-D124130039AC}"/>
-    <hyperlink ref="G12" r:id="rId11" location="locator-assertions-to-contain-text" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-contain-text" xr:uid="{96F77035-9E62-4EAF-BE77-A2A1130D4EB8}"/>
-    <hyperlink ref="G13" r:id="rId12" location="locator-assertions-to-have-accessible-description" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-accessible-description" xr:uid="{4F214BB9-D7A4-4F85-A041-F7E84B82B572}"/>
-    <hyperlink ref="G14" r:id="rId13" location="locator-assertions-to-have-accessible-name" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-accessible-name" xr:uid="{31CBE01E-C28A-4321-ADD6-B366B03EF9EB}"/>
-    <hyperlink ref="G15" r:id="rId14" location="locator-assertions-to-have-attribute" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-attribute" xr:uid="{E656FFCB-75FA-43B1-B26E-52A1AFB2397F}"/>
-    <hyperlink ref="G16" r:id="rId15" location="locator-assertions-to-have-class" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-class" xr:uid="{0E20C956-C5DF-4038-9506-1D6A97F03123}"/>
-    <hyperlink ref="G17" r:id="rId16" location="locator-assertions-to-have-count" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-count" xr:uid="{69A4E251-47BB-4C73-A593-B28A898DC3A4}"/>
-    <hyperlink ref="G18" r:id="rId17" location="locator-assertions-to-have-css" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-css" xr:uid="{5CCD4E4C-F574-4F03-AF7F-636C9612DFFD}"/>
-    <hyperlink ref="G19" r:id="rId18" location="locator-assertions-to-have-id" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-id" xr:uid="{EBC37173-C8AB-415E-835A-5CE23CA68457}"/>
-    <hyperlink ref="G20" r:id="rId19" location="locator-assertions-to-have-js-property" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-js-property" xr:uid="{1988597B-D5A6-4EF3-85B1-ED59F4B38ED6}"/>
-    <hyperlink ref="G21" r:id="rId20" location="locator-assertions-to-have-role" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-role" xr:uid="{18C6DD19-864F-4A4B-8E18-238BB1EC500F}"/>
-    <hyperlink ref="G22" r:id="rId21" location="locator-assertions-to-have-text" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-text" xr:uid="{3616AEFC-34E6-4243-8E75-ECAE0094FB8D}"/>
-    <hyperlink ref="G23" r:id="rId22" location="locator-assertions-to-have-value" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-value" xr:uid="{343BA25B-A5A7-4C28-94A3-3C1DE088D5EB}"/>
-    <hyperlink ref="G24" r:id="rId23" location="locator-assertions-to-have-values" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-values" xr:uid="{DD642672-DA49-4D05-9AA3-85D04278C2B6}"/>
-    <hyperlink ref="G25" r:id="rId24" location="page-assertions-to-have-title" display="https://playwright.dev/python/docs/api/class-pageassertions - page-assertions-to-have-title" xr:uid="{57E2BB2B-03B0-4F08-A8F2-94507A329CB5}"/>
-    <hyperlink ref="G26" r:id="rId25" location="page-assertions-to-have-url" display="https://playwright.dev/python/docs/api/class-pageassertions - page-assertions-to-have-url" xr:uid="{696A03E0-6CE1-475C-80A5-90E449187F68}"/>
-    <hyperlink ref="G27" r:id="rId26" location="api-response-assertions-to-be-ok" display="https://playwright.dev/python/docs/api/class-apiresponseassertions - api-response-assertions-to-be-ok" xr:uid="{EC3C4F9A-C458-46F6-8CDB-F0FC30327282}"/>
-    <hyperlink ref="G3" r:id="rId27" location="locator-assertions-to-be-checked" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-checked" xr:uid="{02951849-7713-4B4B-881E-9220910FDA6B}"/>
-    <hyperlink ref="G32" r:id="rId28" location="locator-assertions-to-be-empty" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-empty" xr:uid="{B96BC46A-F92C-4A41-AA8B-02DC4738C16D}"/>
-    <hyperlink ref="G33" r:id="rId29" location="locator-assertions-to-be-enabled" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-enabled" xr:uid="{641DF09C-8BCA-470C-ADBD-BBFAD7428235}"/>
-    <hyperlink ref="G34" r:id="rId30" location="locator-assertions-to-be-focused" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-focused" xr:uid="{B8C0207F-D226-463D-A014-0F7D1A494778}"/>
-    <hyperlink ref="G35" r:id="rId31" location="locator-assertions-to-be-hidden" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-hidden" xr:uid="{33416D3B-B8EA-4749-A287-04E19A98E144}"/>
-    <hyperlink ref="G36" r:id="rId32" location="locator-assertions-to-be-in-viewport" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-in-viewport" xr:uid="{D0663F0C-4552-4A24-A2C3-8F6B9879EEB7}"/>
-    <hyperlink ref="G37" r:id="rId33" location="locator-assertions-to-be-visible" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-visible" xr:uid="{730918BA-FEFB-4EB4-9EA0-D69A4836D253}"/>
-    <hyperlink ref="G38" r:id="rId34" location="locator-assertions-to-contain-text" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-contain-text" xr:uid="{6996343F-235C-4C19-9FAC-115D2B2EEA65}"/>
-    <hyperlink ref="G39" r:id="rId35" location="locator-assertions-to-have-accessible-description" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-accessible-description" xr:uid="{4AFDAE3B-DAD4-46FB-B8A6-B3811A149BC8}"/>
-    <hyperlink ref="G40" r:id="rId36" location="locator-assertions-to-have-accessible-name" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-accessible-name" xr:uid="{1BC31F5F-6FF4-476D-853E-15E962699F06}"/>
-    <hyperlink ref="G41" r:id="rId37" location="locator-assertions-to-have-attribute" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-attribute" xr:uid="{A4F874D5-D894-43A9-963A-E0BE474880C8}"/>
-    <hyperlink ref="G42" r:id="rId38" location="locator-assertions-to-have-class" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-class" xr:uid="{98C847EE-2E99-426B-A006-A823D0029FA0}"/>
-    <hyperlink ref="G43" r:id="rId39" location="locator-assertions-to-have-count" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-count" xr:uid="{5D8EAAB8-877A-4FCD-BA3A-4594DEAC7F16}"/>
-    <hyperlink ref="G44" r:id="rId40" location="locator-assertions-to-have-css" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-css" xr:uid="{0CC93FB3-7989-4173-B01F-F15139F30556}"/>
-    <hyperlink ref="G45" r:id="rId41" location="locator-assertions-to-have-id" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-id" xr:uid="{E65BDC92-1BE1-459C-BDB3-A6961D5B6CFE}"/>
-    <hyperlink ref="G46" r:id="rId42" location="locator-assertions-to-have-js-property" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-js-property" xr:uid="{E5AD82F3-D1F8-42A2-887A-0853A0F34BE2}"/>
-    <hyperlink ref="G47" r:id="rId43" location="locator-assertions-to-have-role" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-role" xr:uid="{BA3F0662-354F-4149-AE62-2877C24688E9}"/>
-    <hyperlink ref="G48" r:id="rId44" location="locator-assertions-to-have-text" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-text" xr:uid="{2AC03496-A21D-46DF-AD4F-15B490182E71}"/>
-    <hyperlink ref="G49" r:id="rId45" location="locator-assertions-to-have-value" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-value" xr:uid="{74583851-E63B-41C9-868A-1A63308AD92E}"/>
-    <hyperlink ref="G50" r:id="rId46" location="locator-assertions-to-have-values" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-values" xr:uid="{77BB9272-066A-4ECB-8D29-C38263AFCA51}"/>
-    <hyperlink ref="G51" r:id="rId47" location="page-assertions-to-have-title" display="https://playwright.dev/python/docs/api/class-pageassertions - page-assertions-to-have-title" xr:uid="{3AF82632-B965-410F-B232-EBADF0C76737}"/>
-    <hyperlink ref="G52" r:id="rId48" location="page-assertions-to-have-url" display="https://playwright.dev/python/docs/api/class-pageassertions - page-assertions-to-have-url" xr:uid="{90F9B07C-B907-4F23-A0F7-C9C9E1AC8FF9}"/>
-    <hyperlink ref="G53" r:id="rId49" location="api-response-assertions-to-be-ok" display="https://playwright.dev/python/docs/api/class-apiresponseassertions - api-response-assertions-to-be-ok" xr:uid="{098DAD0B-0CE8-4EE4-8F76-B6CAF064B43A}"/>
-    <hyperlink ref="G28" r:id="rId50" location="locator-assertions-to-be-attached" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-attached" xr:uid="{ED716848-ECAE-41E3-8458-5893833FF6A7}"/>
+    <hyperlink ref="K2" r:id="rId1" location="locator-assertions-to-be-attached" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-attached" xr:uid="{6A776293-3E95-4F33-B7FE-ADA817A37EBF}"/>
+    <hyperlink ref="K29" r:id="rId2" location="locator-assertions-to-be-checked" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-checked" xr:uid="{49923DEF-E0B6-4BC0-8783-151958F374E4}"/>
+    <hyperlink ref="K4" r:id="rId3" location="locator-assertions-to-be-disabled" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-disabled" xr:uid="{1E2643AB-1A3A-4A0F-9A97-574529233A1E}"/>
+    <hyperlink ref="K5" r:id="rId4" location="locator-assertions-to-be-editable" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-editable" xr:uid="{D477C94B-190D-49F6-9BB4-D160A299AACE}"/>
+    <hyperlink ref="K6" r:id="rId5" location="locator-assertions-to-be-empty" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-empty" xr:uid="{6CD60D82-18B5-46C7-ACC5-C225C79A74AC}"/>
+    <hyperlink ref="K7" r:id="rId6" location="locator-assertions-to-be-enabled" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-enabled" xr:uid="{C0474D2D-6983-4FB8-8342-B12B2D60EE00}"/>
+    <hyperlink ref="K8" r:id="rId7" location="locator-assertions-to-be-focused" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-focused" xr:uid="{31EA45C4-C6BD-498F-AC20-4EAC54EF5B03}"/>
+    <hyperlink ref="K9" r:id="rId8" location="locator-assertions-to-be-hidden" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-hidden" xr:uid="{39260B88-BEFB-4B20-8655-2F838A1A933F}"/>
+    <hyperlink ref="K10" r:id="rId9" location="locator-assertions-to-be-in-viewport" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-in-viewport" xr:uid="{A43E36C3-6B3A-47D2-B7B0-43BFB738F47C}"/>
+    <hyperlink ref="K11" r:id="rId10" location="locator-assertions-to-be-visible" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-visible" xr:uid="{B2DF592C-3F4F-4169-ADE2-DC65EAF98B12}"/>
+    <hyperlink ref="K12" r:id="rId11" location="locator-assertions-to-contain-text" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-contain-text" xr:uid="{E83B3659-EDF5-46B1-93C6-199707831B83}"/>
+    <hyperlink ref="K13" r:id="rId12" location="locator-assertions-to-have-accessible-description" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-accessible-description" xr:uid="{D4DC5DF4-25D6-4414-80A6-64FD79C6C8AA}"/>
+    <hyperlink ref="K14" r:id="rId13" location="locator-assertions-to-have-accessible-name" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-accessible-name" xr:uid="{5A533183-827A-48AD-ACBA-F680D7CCF001}"/>
+    <hyperlink ref="K15" r:id="rId14" location="locator-assertions-to-have-attribute" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-attribute" xr:uid="{823C3508-C2D2-4703-92A9-3A13BFD355EC}"/>
+    <hyperlink ref="K16" r:id="rId15" location="locator-assertions-to-have-class" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-class" xr:uid="{9D0ED00F-8F1D-4179-9430-7B4DD694ECE1}"/>
+    <hyperlink ref="K17" r:id="rId16" location="locator-assertions-to-have-count" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-count" xr:uid="{E2B43766-E86A-4B7C-841F-1766FE3681DA}"/>
+    <hyperlink ref="K18" r:id="rId17" location="locator-assertions-to-have-css" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-css" xr:uid="{E2DAB0B4-AC53-4B1D-A03B-AADAFE95699E}"/>
+    <hyperlink ref="K19" r:id="rId18" location="locator-assertions-to-have-id" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-id" xr:uid="{16BB9EB5-984D-4143-912E-1D47E239CBC6}"/>
+    <hyperlink ref="K20" r:id="rId19" location="locator-assertions-to-have-js-property" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-js-property" xr:uid="{76BA7DBA-824E-4409-8935-B8985D6D7DF8}"/>
+    <hyperlink ref="K21" r:id="rId20" location="locator-assertions-to-have-role" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-role" xr:uid="{11DD1478-7075-4639-90F0-62E4A08D2ED6}"/>
+    <hyperlink ref="K22" r:id="rId21" location="locator-assertions-to-have-text" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-text" xr:uid="{5994908B-E5DB-4A3D-8279-DECD508CA2C2}"/>
+    <hyperlink ref="K23" r:id="rId22" location="locator-assertions-to-have-value" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-value" xr:uid="{8241FA57-879C-4E75-A68E-201181DA4C24}"/>
+    <hyperlink ref="K24" r:id="rId23" location="locator-assertions-to-have-values" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-values" xr:uid="{7DC937D6-6A95-446A-B721-21F747170425}"/>
+    <hyperlink ref="K25" r:id="rId24" location="page-assertions-to-have-title" display="https://playwright.dev/python/docs/api/class-pageassertions - page-assertions-to-have-title" xr:uid="{14F0C685-3B48-4DAF-B166-7BFAF3FF2C31}"/>
+    <hyperlink ref="K26" r:id="rId25" location="page-assertions-to-have-url" display="https://playwright.dev/python/docs/api/class-pageassertions - page-assertions-to-have-url" xr:uid="{AE2A1FD3-13CC-41D8-860D-999CB03E5DFA}"/>
+    <hyperlink ref="K27" r:id="rId26" location="api-response-assertions-to-be-ok" display="https://playwright.dev/python/docs/api/class-apiresponseassertions - api-response-assertions-to-be-ok" xr:uid="{AB9EEDAE-CCD1-4EA7-9875-3CE05DE20307}"/>
+    <hyperlink ref="K3" r:id="rId27" location="locator-assertions-to-be-checked" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-checked" xr:uid="{8A952642-FD0E-47DE-B7B0-411C880FB002}"/>
+    <hyperlink ref="K32" r:id="rId28" location="locator-assertions-to-be-empty" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-empty" xr:uid="{002F05CB-D8C8-40BD-B346-DE1887F28512}"/>
+    <hyperlink ref="K33" r:id="rId29" location="locator-assertions-to-be-enabled" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-enabled" xr:uid="{C96EF477-3EBB-4083-8243-766EF011D4EA}"/>
+    <hyperlink ref="K34" r:id="rId30" location="locator-assertions-to-be-focused" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-focused" xr:uid="{F21FE148-51D8-43B7-BCC1-3C67D0BB6362}"/>
+    <hyperlink ref="K35" r:id="rId31" location="locator-assertions-to-be-hidden" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-hidden" xr:uid="{A4875ABF-B4E1-464C-B833-EA121367D71B}"/>
+    <hyperlink ref="K36" r:id="rId32" location="locator-assertions-to-be-in-viewport" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-in-viewport" xr:uid="{1976B5DC-9FD0-419E-981A-5B086F5AB4BE}"/>
+    <hyperlink ref="K37" r:id="rId33" location="locator-assertions-to-be-visible" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-visible" xr:uid="{FA94E99D-370E-4E3C-AE3F-D275C7057991}"/>
+    <hyperlink ref="K38" r:id="rId34" location="locator-assertions-to-contain-text" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-contain-text" xr:uid="{2FB9D72D-B406-4BE3-AA5E-EABBEEEB0D89}"/>
+    <hyperlink ref="K39" r:id="rId35" location="locator-assertions-to-have-accessible-description" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-accessible-description" xr:uid="{F208A8BA-3C98-4067-B249-62A4E6E918EE}"/>
+    <hyperlink ref="K40" r:id="rId36" location="locator-assertions-to-have-accessible-name" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-accessible-name" xr:uid="{02BA5535-05A3-46ED-8CEE-70CA27281626}"/>
+    <hyperlink ref="K41" r:id="rId37" location="locator-assertions-to-have-attribute" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-attribute" xr:uid="{9C94136A-B6A2-41E7-83C5-1A29821E12B3}"/>
+    <hyperlink ref="K42" r:id="rId38" location="locator-assertions-to-have-class" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-class" xr:uid="{52BE82D1-B2E5-417C-940B-E91E99C360D6}"/>
+    <hyperlink ref="K43" r:id="rId39" location="locator-assertions-to-have-count" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-count" xr:uid="{34EE3786-9FC0-4C4F-8E77-CA2A221F8B6B}"/>
+    <hyperlink ref="K44" r:id="rId40" location="locator-assertions-to-have-css" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-css" xr:uid="{683CFC9D-857A-4C22-A918-A06ED7460BE1}"/>
+    <hyperlink ref="K45" r:id="rId41" location="locator-assertions-to-have-id" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-id" xr:uid="{F66808CB-CFA6-406B-BDB2-0BD5A5E24719}"/>
+    <hyperlink ref="K46" r:id="rId42" location="locator-assertions-to-have-js-property" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-js-property" xr:uid="{55660BE3-2166-4F2A-88D6-C0FF3CC3547C}"/>
+    <hyperlink ref="K47" r:id="rId43" location="locator-assertions-to-have-role" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-role" xr:uid="{2E8D53C6-C8B6-4485-8213-26427190D6A7}"/>
+    <hyperlink ref="K48" r:id="rId44" location="locator-assertions-to-have-text" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-text" xr:uid="{2B5D1B5E-D5AB-49CC-B106-FA3C5901983E}"/>
+    <hyperlink ref="K49" r:id="rId45" location="locator-assertions-to-have-value" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-value" xr:uid="{A39D76B7-548D-4409-A5A7-7EA389924788}"/>
+    <hyperlink ref="K50" r:id="rId46" location="locator-assertions-to-have-values" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-have-values" xr:uid="{B991B076-9526-488F-B34C-2B2E935FF3B6}"/>
+    <hyperlink ref="K51" r:id="rId47" location="page-assertions-to-have-title" display="https://playwright.dev/python/docs/api/class-pageassertions - page-assertions-to-have-title" xr:uid="{143ED2B9-BCD9-42CA-8CDD-0E5FD583BAD5}"/>
+    <hyperlink ref="K52" r:id="rId48" location="page-assertions-to-have-url" display="https://playwright.dev/python/docs/api/class-pageassertions - page-assertions-to-have-url" xr:uid="{0240E5AE-64A6-4BA5-AA8B-4EB1942E91B4}"/>
+    <hyperlink ref="K53" r:id="rId49" location="api-response-assertions-to-be-ok" display="https://playwright.dev/python/docs/api/class-apiresponseassertions - api-response-assertions-to-be-ok" xr:uid="{252FFA77-DA7B-4A6B-BA26-7E5E82724B3B}"/>
+    <hyperlink ref="K28" r:id="rId50" location="locator-assertions-to-be-attached" display="https://playwright.dev/python/docs/api/class-locatorassertions - locator-assertions-to-be-attached" xr:uid="{65EB7027-0F69-4E16-B0B1-CAADC6AB6C1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId51"/>
@@ -2913,10 +2918,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07532E9C-BAA9-4854-9AA1-F545AA390304}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2926,121 +2931,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="73" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="68" t="s">
+      <c r="B3" s="57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="69"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="B4" s="57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="71" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>208</v>
       </c>
-      <c r="B4" s="71" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="67"/>
-      <c r="B5" s="69"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="B7" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="69"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="B8" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="72" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="71" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="67"/>
-      <c r="B9" s="69"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="B11" s="58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>212</v>
       </c>
-      <c r="B10" s="69"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="B13" s="58" t="s">
         <v>213</v>
       </c>
-      <c r="B11" s="72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
-        <v>214</v>
-      </c>
-      <c r="B12" s="72" t="s">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="72" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="58" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="58" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="69"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3052,12 +3043,12 @@
   <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.77734375" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
@@ -3123,16 +3114,16 @@
     </row>
     <row r="2" spans="1:16" s="33" customFormat="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>38</v>
@@ -3141,34 +3132,34 @@
         <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="O2" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3177,7 +3168,7 @@
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
@@ -3198,10 +3189,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="24"/>
-      <c r="D4" s="66" t="str">
+      <c r="D4" s="56" t="str">
         <f>'Page Elements'!B3</f>
         <v>//input[@id="twotabsearchtextbox"]</v>
       </c>
@@ -3210,7 +3201,7 @@
         <v>9</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H4" s="24"/>
       <c r="I4" s="24"/>
@@ -3229,10 +3220,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="24"/>
-      <c r="D5" s="74" t="str">
+      <c r="D5" s="59" t="str">
         <f>'Page Elements'!B4</f>
         <v>//input[@id='nav-search-submit-button']</v>
       </c>
@@ -3259,9 +3250,9 @@
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="74"/>
+        <v>68</v>
+      </c>
+      <c r="D6" s="59"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -3280,10 +3271,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C7" s="27"/>
-      <c r="D7" s="75" t="str">
+      <c r="D7" s="60" t="str">
         <f>'Page Elements'!B8</f>
         <v>.s-pagination-next</v>
       </c>
@@ -3294,7 +3285,7 @@
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
       <c r="K7" s="27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L7" s="27">
         <v>10000</v>
@@ -3310,10 +3301,10 @@
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="75"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -3331,10 +3322,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C9" s="29"/>
-      <c r="D9" s="76" t="str">
+      <c r="D9" s="61" t="str">
         <f>'Page Elements'!B7</f>
         <v>//span[@class='a-size-medium a-color-base a-text-normal']</v>
       </c>
@@ -3345,7 +3336,7 @@
       <c r="I9" s="29"/>
       <c r="J9" s="29"/>
       <c r="K9" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L9" s="29"/>
       <c r="M9" s="17"/>
@@ -3358,13 +3349,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="29"/>
-      <c r="D10" s="76"/>
+      <c r="D10" s="61"/>
       <c r="E10" s="30"/>
       <c r="F10" s="29" t="s">
-        <v>44</v>
+        <v>217</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -3383,9 +3374,9 @@
       </c>
       <c r="B11" s="29"/>
       <c r="C11" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="76"/>
+        <v>77</v>
+      </c>
+      <c r="D11" s="61"/>
       <c r="E11" s="30"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -3404,20 +3395,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="29"/>
-      <c r="D12" s="76"/>
+      <c r="D12" s="61"/>
       <c r="E12" s="30"/>
       <c r="F12" s="29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L12" s="29"/>
       <c r="M12" s="29"/>
@@ -3430,10 +3421,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="29"/>
-      <c r="D13" s="76" t="str">
+      <c r="D13" s="61" t="str">
         <f>'Page Elements'!B11</f>
         <v>#productTitle</v>
       </c>
@@ -3443,14 +3434,14 @@
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" s="29">
         <v>30000</v>
@@ -3458,7 +3449,7 @@
       <c r="M13" s="29"/>
       <c r="N13" s="31"/>
       <c r="O13" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P13" s="31"/>
     </row>
@@ -3467,11 +3458,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="76" t="str">
-        <f>'Page Elements'!B13</f>
+      <c r="D14" s="61" t="str">
+        <f>'Page Elements'!B12</f>
         <v>#acrCustomerReviewText</v>
       </c>
       <c r="E14" s="30"/>
@@ -3480,14 +3471,14 @@
       </c>
       <c r="G14" s="29"/>
       <c r="H14" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J14" s="29"/>
       <c r="K14" s="29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L14" s="29">
         <v>30000</v>
@@ -3503,14 +3494,14 @@
       </c>
       <c r="B15" s="29"/>
       <c r="C15" s="26" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D15" s="30"/>
       <c r="E15" s="30"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
@@ -3526,11 +3517,11 @@
         <v>14</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="79" t="str">
-        <f>'Page Elements'!B12</f>
+      <c r="D16" s="30" t="str">
+        <f>'Page Elements'!B13</f>
         <v>//div[@class='a-section a-spacing-none aok-align-center aok-relative']</v>
       </c>
       <c r="E16" s="30"/>
@@ -3539,14 +3530,14 @@
       </c>
       <c r="G16" s="29"/>
       <c r="H16" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J16" s="29"/>
       <c r="K16" s="29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="L16" s="29">
         <v>30000</v>
@@ -3561,7 +3552,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="30" t="str">
@@ -3574,14 +3565,14 @@
       </c>
       <c r="G17" s="29"/>
       <c r="H17" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J17" s="29"/>
       <c r="K17" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L17" s="29">
         <v>1000</v>
@@ -3596,7 +3587,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="29"/>
       <c r="D18" s="30" t="str">
@@ -3609,14 +3600,14 @@
       </c>
       <c r="G18" s="29"/>
       <c r="H18" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J18" s="29"/>
       <c r="K18" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="L18" s="29">
         <v>1000</v>
@@ -3625,7 +3616,7 @@
       <c r="N18" s="31"/>
       <c r="O18" s="29"/>
       <c r="P18" s="31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3633,7 +3624,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="30" t="str">
@@ -3646,14 +3637,14 @@
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" s="29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J19" s="29"/>
       <c r="K19" s="29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L19" s="29">
         <v>1000</v>
@@ -3668,7 +3659,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C20" s="29"/>
       <c r="D20" s="30"/>
@@ -3692,7 +3683,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
@@ -3714,7 +3705,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27" t="str">
@@ -3743,7 +3734,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" s="27"/>
       <c r="D23" s="27" t="str">
@@ -3754,13 +3745,13 @@
       <c r="F23" s="27"/>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J23" s="32" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27">
@@ -3789,7 +3780,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3856,16 +3847,16 @@
     </row>
     <row r="2" spans="1:16" s="33" customFormat="1" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>38</v>
@@ -3874,373 +3865,373 @@
         <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="N2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="64">
+        <v>1</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+    </row>
+    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="64">
+        <v>2</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O2" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="P2" s="23" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="84">
-        <v>1</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="86" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="84">
-        <v>2</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="80" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="88" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88">
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67">
         <v>30000</v>
       </c>
-      <c r="M4" s="88"/>
-      <c r="N4" s="89"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="84">
+      <c r="A5" s="64">
         <v>3</v>
       </c>
-      <c r="B5" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88" t="s">
+      <c r="B5" s="67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="67"/>
+      <c r="D5" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88">
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67">
         <v>15000</v>
       </c>
-      <c r="M5" s="88"/>
-      <c r="N5" s="89"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="84">
+      <c r="A6" s="64">
         <v>4</v>
       </c>
-      <c r="B6" s="88"/>
-      <c r="C6" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="80"/>
-      <c r="E6" s="88"/>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
-      <c r="H6" s="88"/>
-      <c r="I6" s="88"/>
-      <c r="J6" s="88"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="88"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="89"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="84">
+      <c r="A7" s="64">
         <v>5</v>
       </c>
-      <c r="B7" s="91" t="s">
+      <c r="B7" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="91"/>
-      <c r="D7" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="91"/>
-      <c r="G7" s="91"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="91" t="s">
-        <v>73</v>
-      </c>
-      <c r="L7" s="91">
+      <c r="L7" s="69">
         <v>10000</v>
       </c>
-      <c r="M7" s="91"/>
-      <c r="N7" s="92"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="84">
+      <c r="A8" s="64">
         <v>6</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="72"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="93"/>
-      <c r="D8" s="83" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="94"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="93"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="93" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="93"/>
-      <c r="M8" s="95"/>
-      <c r="N8" s="96"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
       <c r="O8" s="6"/>
       <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="84">
+      <c r="A9" s="64">
         <v>7</v>
       </c>
-      <c r="B9" s="93" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="93"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="96"/>
+      <c r="B9" s="71" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="71"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="74"/>
       <c r="O9" s="6"/>
       <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="84">
+      <c r="A10" s="64">
         <v>9</v>
       </c>
-      <c r="B10" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="93"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="93"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="L10" s="93"/>
-      <c r="M10" s="93"/>
-      <c r="N10" s="96"/>
+      <c r="B10" s="71" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="74"/>
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="84">
+      <c r="A11" s="64">
         <v>14</v>
       </c>
-      <c r="B11" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="93"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="93" t="s">
+      <c r="B11" s="71" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="93"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="93"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="96"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="74"/>
       <c r="O11" s="6"/>
       <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="84">
+      <c r="A12" s="64">
         <v>15</v>
       </c>
-      <c r="B12" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="93"/>
-      <c r="L12" s="93"/>
-      <c r="M12" s="93"/>
-      <c r="N12" s="96"/>
+      <c r="B12" s="71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="74"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="77">
+      <c r="A13" s="62">
         <v>16</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="75" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="75"/>
+      <c r="D13" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+      <c r="L13" s="75">
+        <v>20000</v>
+      </c>
+      <c r="M13" s="75"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="77">
+        <v>17</v>
+      </c>
+      <c r="B14" s="63" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="97"/>
-      <c r="D13" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97">
+      <c r="J14" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63">
         <v>20000</v>
       </c>
-      <c r="M13" s="97"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="63"/>
-    </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="99">
-        <v>17</v>
-      </c>
-      <c r="B14" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="J14" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78">
-        <v>20000</v>
-      </c>
-      <c r="M14" s="78"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="81"/>
-      <c r="P14" s="81"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="65">
+      <c r="A15" s="86">
         <v>18</v>
       </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="80" t="s">
-        <v>190</v>
-      </c>
-      <c r="G15" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="65"/>
-      <c r="M15" s="65"/>
-      <c r="N15" s="102" t="s">
-        <v>191</v>
-      </c>
-      <c r="O15" s="81"/>
-      <c r="P15" s="81"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4259,13 +4250,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88502B4-0A6C-4340-8CEE-AB793B0A4CE5}">
   <dimension ref="A1:P4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
@@ -4329,16 +4320,16 @@
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>62</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>38</v>
@@ -4347,71 +4338,71 @@
         <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I2" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="N2" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="O2" s="23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="P2" s="23" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="59"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -4429,23 +4420,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Refer Action Dropdown" error="Entry not in actions dropdown." xr:uid="{03BCF568-D31A-4D42-9B00-0F389DE38A69}">
-          <x14:formula1>
-            <xm:f>Dropdown!$D$2:$D$48</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Refer Assert Dropdown" error="Entry not in assert dropdown" xr:uid="{6DDE2899-4FA2-43AA-9688-DDDD2BF47112}">
           <x14:formula1>
-            <xm:f>Dropdown!$F$2:$F$6</xm:f>
+            <xm:f>Dropdown!$J$2:$J$6</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Refer Condition Dropdown" error="Entry not in condition dropdown_x000a_" xr:uid="{A6CB2565-4E95-4259-BC2E-2AE348D18550}">
           <x14:formula1>
-            <xm:f>Dropdown!$G$2:$G$55</xm:f>
+            <xm:f>Dropdown!$K$2:$K$55</xm:f>
           </x14:formula1>
           <xm:sqref>I3:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Refer Action Dropdown" error="Entry not in actions dropdown." xr:uid="{03BCF568-D31A-4D42-9B00-0F389DE38A69}">
+          <x14:formula1>
+            <xm:f>Dropdown!$D$2:$D$50</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3:F1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/excel/Template.xlsx
+++ b/excel/Template.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\WebscrapingSuite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD7B5C7B-8A47-43BF-83EE-8E415685F883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65135F03-A86B-4E22-9D24-518B8CF45598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="10" r:id="rId1"/>
     <sheet name="Dropdown" sheetId="4" r:id="rId2"/>
     <sheet name="Page Elements" sheetId="13" r:id="rId3"/>
-    <sheet name="amazon product page details" sheetId="7" r:id="rId4"/>
-    <sheet name="amazon product urls" sheetId="8" r:id="rId5"/>
-    <sheet name="template" sheetId="11" r:id="rId6"/>
+    <sheet name="test remaining pages" sheetId="14" r:id="rId4"/>
+    <sheet name="amazon product page details" sheetId="7" r:id="rId5"/>
+    <sheet name="amazon product urls" sheetId="8" r:id="rId6"/>
+    <sheet name="template" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="234">
   <si>
     <t>Test Name</t>
   </si>
@@ -693,13 +694,52 @@
   </si>
   <si>
     <t>loop open link</t>
+  </si>
+  <si>
+    <t>Open Website</t>
+  </si>
+  <si>
+    <t>https://www.clearias.com/quantitative-easing-federal-tapering/</t>
+  </si>
+  <si>
+    <t>time.sleep(2)</t>
+  </si>
+  <si>
+    <t>PAGE TITLE</t>
+  </si>
+  <si>
+    <t>//header[@class='entry-header']/h1</t>
+  </si>
+  <si>
+    <t>[TITLE]</t>
+  </si>
+  <si>
+    <t>ENTRY META</t>
+  </si>
+  <si>
+    <t>//header[@class='entry-header']/p</t>
+  </si>
+  <si>
+    <t>[META]</t>
+  </si>
+  <si>
+    <t>PAGE CONTENT</t>
+  </si>
+  <si>
+    <t>//div[@class='pf-content']</t>
+  </si>
+  <si>
+    <t>[CONTENT]</t>
+  </si>
+  <si>
+    <t>Web 5.0 - ClearIAS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,8 +833,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -873,8 +921,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED7D31"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -1244,12 +1310,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1398,6 +1488,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1941,7 +2055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FBC5B-DDF7-4192-94E1-360D45BEDC8B}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
@@ -3039,6 +3153,402 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237F5C5E-1FC4-46DC-A23E-7D26D46FAFBC}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="88">
+        <v>1</v>
+      </c>
+      <c r="B1" s="88">
+        <v>2</v>
+      </c>
+      <c r="C1" s="88">
+        <v>3</v>
+      </c>
+      <c r="D1" s="88">
+        <v>4</v>
+      </c>
+      <c r="E1" s="88">
+        <v>5</v>
+      </c>
+      <c r="F1" s="88">
+        <v>6</v>
+      </c>
+      <c r="G1" s="88">
+        <v>7</v>
+      </c>
+      <c r="H1" s="88">
+        <v>8</v>
+      </c>
+      <c r="I1" s="88">
+        <v>13</v>
+      </c>
+      <c r="J1" s="88">
+        <v>9</v>
+      </c>
+      <c r="K1" s="88">
+        <v>10</v>
+      </c>
+      <c r="L1" s="88">
+        <v>11</v>
+      </c>
+      <c r="M1" s="88">
+        <v>12</v>
+      </c>
+      <c r="N1" s="89">
+        <v>15</v>
+      </c>
+      <c r="O1" s="90">
+        <v>16</v>
+      </c>
+      <c r="P1" s="90">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="91" t="s">
+        <v>219</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="91" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="91" t="s">
+        <v>56</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="94" t="s">
+        <v>184</v>
+      </c>
+      <c r="P2" s="94" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="95">
+        <v>3</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" t="s">
+        <v>222</v>
+      </c>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="97">
+        <v>9</v>
+      </c>
+      <c r="B5" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="97"/>
+      <c r="H5" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="L5" s="97">
+        <v>5000</v>
+      </c>
+      <c r="M5" s="97"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="97">
+        <v>10</v>
+      </c>
+      <c r="B6" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="L6" s="97">
+        <v>1000</v>
+      </c>
+      <c r="M6" s="97"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="97">
+        <v>11</v>
+      </c>
+      <c r="B7" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="L7" s="97">
+        <v>1000</v>
+      </c>
+      <c r="M7" s="97"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="95">
+        <v>3</v>
+      </c>
+      <c r="B8" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="96"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="96"/>
+      <c r="I9" s="96"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="96"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="97">
+        <v>9</v>
+      </c>
+      <c r="B10" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="97"/>
+      <c r="D10" s="97" t="s">
+        <v>225</v>
+      </c>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97" t="s">
+        <v>226</v>
+      </c>
+      <c r="L10" s="97">
+        <v>5000</v>
+      </c>
+      <c r="M10" s="97"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="97">
+        <v>10</v>
+      </c>
+      <c r="B11" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="97">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="97"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="97">
+        <v>11</v>
+      </c>
+      <c r="B12" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97" t="s">
+        <v>231</v>
+      </c>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97" t="s">
+        <v>232</v>
+      </c>
+      <c r="L12" s="97">
+        <v>1000</v>
+      </c>
+      <c r="M12" s="97"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M8" r:id="rId1" display="https://www.clearias.com/web-5-0/" xr:uid="{F3A3CCB5-8126-46F4-8245-9E1385816185}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB6AC3C-1F6F-454E-8ECB-F3E18E6A0BC8}">
   <dimension ref="A1:P23"/>
   <sheetViews>
@@ -3775,7 +4285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A922C3-ABB6-4CAB-892C-785E30C0104C}">
   <dimension ref="A1:P15"/>
   <sheetViews>
@@ -4246,7 +4756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88502B4-0A6C-4340-8CEE-AB793B0A4CE5}">
   <dimension ref="A1:P4"/>
   <sheetViews>

--- a/excel/Template.xlsx
+++ b/excel/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daary\PycharmProjects\WebscrapingSuite\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4999BC70-86B6-4168-889C-149C638DFC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79F202B-13BE-49BB-8844-43513AEF3A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AF14A077-A23C-4913-8C40-7CFF0597FBC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Details" sheetId="10" r:id="rId1"/>
@@ -1671,95 +1671,95 @@
     <xf numFmtId="0" fontId="8" fillId="15" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2078,8 +2078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F317D1DB-5C3E-4320-8ED1-BC4F63A69614}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2117,7 +2117,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -2142,7 +2142,7 @@
         <v>141</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="109" t="s">
         <v>142</v>
       </c>
     </row>
@@ -2151,42 +2151,42 @@
         <v>143</v>
       </c>
       <c r="B8" s="3"/>
-      <c r="C8" s="80"/>
+      <c r="C8" s="109"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>144</v>
       </c>
       <c r="B9" s="3"/>
-      <c r="C9" s="80"/>
+      <c r="C9" s="109"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>145</v>
       </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="80"/>
+      <c r="C10" s="109"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>146</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="80"/>
+      <c r="C11" s="109"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>147</v>
       </c>
       <c r="B12" s="3"/>
-      <c r="C12" s="80"/>
+      <c r="C12" s="109"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>148</v>
       </c>
       <c r="B13" s="3"/>
-      <c r="C13" s="80"/>
+      <c r="C13" s="109"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
@@ -2194,93 +2194,93 @@
       </c>
       <c r="B14" s="3" t="b">
         <f>B4</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="80"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="109"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="20" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="3"/>
-      <c r="C15" s="80"/>
+      <c r="C15" s="109"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="20" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="3"/>
-      <c r="C16" s="80"/>
+      <c r="C16" s="109"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="20" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="3"/>
-      <c r="C17" s="80"/>
+      <c r="C17" s="109"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="3"/>
-      <c r="C18" s="80"/>
+      <c r="C18" s="109"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="20" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="3"/>
-      <c r="C19" s="80"/>
+      <c r="C19" s="109"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="20" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="3"/>
-      <c r="C20" s="80"/>
+      <c r="C20" s="109"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="20" t="s">
         <v>155</v>
       </c>
       <c r="B21" s="3"/>
-      <c r="C21" s="80"/>
+      <c r="C21" s="109"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>156</v>
       </c>
       <c r="B22" s="3"/>
-      <c r="C22" s="80"/>
+      <c r="C22" s="109"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>157</v>
       </c>
       <c r="B23" s="3"/>
-      <c r="C23" s="80"/>
+      <c r="C23" s="109"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>158</v>
       </c>
       <c r="B24" s="3"/>
-      <c r="C24" s="80"/>
+      <c r="C24" s="109"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>159</v>
       </c>
       <c r="B25" s="3"/>
-      <c r="C25" s="80"/>
+      <c r="C25" s="109"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>160</v>
       </c>
       <c r="B26" s="3"/>
-      <c r="C26" s="80"/>
+      <c r="C26" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2304,7 +2304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B84FBC5B-DDF7-4192-94E1-360D45BEDC8B}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
@@ -2370,1050 +2370,1050 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="87" t="s">
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="88" t="s">
+      <c r="K2" s="87" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="86"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="92" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="96" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="95" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="96" t="s">
         <v>87</v>
       </c>
-      <c r="L3" s="95"/>
+      <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="B4" s="90"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="92" t="s">
+      <c r="B4" s="89"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="96" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="L4" s="95"/>
+      <c r="L4" s="94"/>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="99"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92" t="s">
+      <c r="A5" s="98"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="96" t="s">
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="97" t="s">
+      <c r="K5" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="95"/>
+      <c r="L5" s="94"/>
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="99"/>
-      <c r="B6" s="90"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92" t="s">
+      <c r="A6" s="98"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="97" t="s">
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="93"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="L6" s="95"/>
+      <c r="L6" s="94"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="99"/>
-      <c r="B7" s="90"/>
-      <c r="C7" s="91"/>
-      <c r="D7" s="92" t="s">
+      <c r="A7" s="98"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="91"/>
-      <c r="K7" s="97" t="s">
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="95"/>
+      <c r="L7" s="94"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="99"/>
-      <c r="B8" s="90"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="95"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="97" t="s">
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="L8" s="95"/>
+      <c r="L8" s="94"/>
     </row>
     <row r="9" spans="1:14" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="99"/>
-      <c r="B9" s="90"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="92" t="s">
+      <c r="A9" s="98"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="95"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="97" t="s">
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="93"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="L9" s="95"/>
+      <c r="L9" s="94"/>
     </row>
     <row r="10" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="99"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="92" t="s">
+      <c r="A10" s="98"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="94"/>
-      <c r="F10" s="93" t="s">
+      <c r="E10" s="93"/>
+      <c r="F10" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="91"/>
-      <c r="K10" s="97" t="s">
+      <c r="G10" s="93"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="L10" s="95"/>
+      <c r="L10" s="94"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="99"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="91"/>
-      <c r="D11" s="92" t="s">
+      <c r="A11" s="98"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="91" t="s">
         <v>176</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="93" t="s">
+      <c r="E11" s="93"/>
+      <c r="F11" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="91"/>
-      <c r="K11" s="97" t="s">
+      <c r="G11" s="93"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="L11" s="95"/>
+      <c r="L11" s="94"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="99"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="92" t="s">
+      <c r="A12" s="98"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="93" t="s">
+      <c r="E12" s="93"/>
+      <c r="F12" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="97" t="s">
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="L12" s="101" t="s">
+      <c r="L12" s="100" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="99"/>
-      <c r="B13" s="90"/>
-      <c r="C13" s="91"/>
-      <c r="D13" s="92" t="s">
+      <c r="A13" s="98"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="93" t="s">
+      <c r="E13" s="93"/>
+      <c r="F13" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="91"/>
-      <c r="K13" s="97" t="s">
+      <c r="G13" s="93"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="96" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="101" t="s">
+      <c r="L13" s="100" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="99"/>
-      <c r="B14" s="90"/>
-      <c r="C14" s="91"/>
-      <c r="D14" s="92" t="s">
+      <c r="A14" s="98"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="94"/>
-      <c r="F14" s="93" t="s">
+      <c r="E14" s="93"/>
+      <c r="F14" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="97" t="s">
+      <c r="G14" s="93"/>
+      <c r="H14" s="93"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="L14" s="101" t="s">
+      <c r="L14" s="100" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="99"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="92" t="s">
+      <c r="A15" s="98"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="94"/>
-      <c r="F15" s="93" t="s">
+      <c r="E15" s="93"/>
+      <c r="F15" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="97" t="s">
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="96" t="s">
         <v>99</v>
       </c>
-      <c r="L15" s="101" t="s">
+      <c r="L15" s="100" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="99"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92" t="s">
+      <c r="A16" s="98"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="93" t="s">
+      <c r="E16" s="93"/>
+      <c r="F16" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G16" s="94"/>
-      <c r="H16" s="94"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="97" t="s">
+      <c r="G16" s="93"/>
+      <c r="H16" s="93"/>
+      <c r="I16" s="94"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="L16" s="101" t="s">
+      <c r="L16" s="100" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="99"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92" t="s">
+      <c r="A17" s="98"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="94"/>
-      <c r="F17" s="93" t="s">
+      <c r="E17" s="93"/>
+      <c r="F17" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94"/>
-      <c r="I17" s="95"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="97" t="s">
+      <c r="G17" s="93"/>
+      <c r="H17" s="93"/>
+      <c r="I17" s="94"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="L17" s="101" t="s">
+      <c r="L17" s="100" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="99"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="92" t="s">
+      <c r="A18" s="98"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="97" t="s">
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="L18" s="101" t="s">
+      <c r="L18" s="100" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="99"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92" t="s">
+      <c r="A19" s="98"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="94"/>
-      <c r="F19" s="93" t="s">
+      <c r="E19" s="93"/>
+      <c r="F19" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G19" s="94"/>
-      <c r="H19" s="94"/>
-      <c r="I19" s="95"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="97" t="s">
+      <c r="G19" s="93"/>
+      <c r="H19" s="93"/>
+      <c r="I19" s="94"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="L19" s="101" t="s">
+      <c r="L19" s="100" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="99"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92" t="s">
+      <c r="A20" s="98"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="94"/>
-      <c r="F20" s="93" t="s">
+      <c r="E20" s="93"/>
+      <c r="F20" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G20" s="94"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="97" t="s">
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="L20" s="101" t="s">
+      <c r="L20" s="100" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="99"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92" t="s">
+      <c r="A21" s="98"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="93" t="s">
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="95"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="97" t="s">
+      <c r="I21" s="94"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="96" t="s">
         <v>105</v>
       </c>
-      <c r="L21" s="101" t="s">
+      <c r="L21" s="100" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="99"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92" t="s">
+      <c r="A22" s="98"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="97" t="s">
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="93"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="101" t="s">
+      <c r="L22" s="100" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="99"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="92" t="s">
+      <c r="A23" s="98"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="97" t="s">
+      <c r="E23" s="93"/>
+      <c r="F23" s="93"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="93"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="96" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="101" t="s">
+      <c r="L23" s="100" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="99"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="92" t="s">
+      <c r="A24" s="98"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="91" t="s">
         <v>201</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="94"/>
-      <c r="H24" s="94"/>
-      <c r="I24" s="95"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="97" t="s">
+      <c r="E24" s="93"/>
+      <c r="F24" s="93"/>
+      <c r="G24" s="93"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="L24" s="101" t="s">
+      <c r="L24" s="100" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="99"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="92" t="s">
+      <c r="A25" s="98"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="91" t="s">
         <v>204</v>
       </c>
-      <c r="E25" s="94"/>
-      <c r="F25" s="94"/>
-      <c r="G25" s="94"/>
-      <c r="H25" s="94"/>
-      <c r="I25" s="95"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="97" t="s">
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="96" t="s">
         <v>109</v>
       </c>
-      <c r="L25" s="101" t="s">
+      <c r="L25" s="100" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="99"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92" t="s">
+      <c r="A26" s="98"/>
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="94"/>
-      <c r="F26" s="94"/>
-      <c r="G26" s="94"/>
-      <c r="H26" s="93" t="s">
+      <c r="E26" s="93"/>
+      <c r="F26" s="93"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="92" t="s">
         <v>66</v>
       </c>
-      <c r="I26" s="95"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="97" t="s">
+      <c r="I26" s="94"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="96" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="101" t="s">
+      <c r="L26" s="100" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="99"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92" t="s">
+      <c r="A27" s="98"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="101" t="s">
+      <c r="E27" s="93"/>
+      <c r="F27" s="93"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="J27" s="91"/>
-      <c r="K27" s="97" t="s">
+      <c r="J27" s="90"/>
+      <c r="K27" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="L27" s="95"/>
+      <c r="L27" s="94"/>
     </row>
     <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="99"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92" t="s">
+      <c r="A28" s="98"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="94"/>
-      <c r="F28" s="94"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="101" t="s">
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="100" t="s">
         <v>185</v>
       </c>
-      <c r="J28" s="91"/>
-      <c r="K28" s="97" t="s">
+      <c r="J28" s="90"/>
+      <c r="K28" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="L28" s="95"/>
+      <c r="L28" s="94"/>
     </row>
     <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="99"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92" t="s">
+      <c r="A29" s="98"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="E29" s="94"/>
-      <c r="F29" s="93" t="s">
+      <c r="E29" s="93"/>
+      <c r="F29" s="92" t="s">
         <v>184</v>
       </c>
-      <c r="G29" s="94"/>
-      <c r="H29" s="94"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="97" t="s">
+      <c r="G29" s="93"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="94"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="96" t="s">
         <v>113</v>
       </c>
-      <c r="L29" s="95"/>
+      <c r="L29" s="94"/>
     </row>
     <row r="30" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="99"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="92" t="s">
+      <c r="A30" s="98"/>
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="94"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="97" t="s">
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="96" t="s">
         <v>114</v>
       </c>
-      <c r="L30" s="95"/>
+      <c r="L30" s="94"/>
     </row>
     <row r="31" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="99"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92" t="s">
+      <c r="A31" s="98"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="91" t="s">
         <v>202</v>
       </c>
-      <c r="E31" s="94"/>
-      <c r="F31" s="94"/>
-      <c r="G31" s="94"/>
-      <c r="H31" s="94"/>
-      <c r="I31" s="95"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="97" t="s">
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
+      <c r="J31" s="90"/>
+      <c r="K31" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="L31" s="95"/>
+      <c r="L31" s="94"/>
     </row>
     <row r="32" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="99"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="102" t="s">
+      <c r="A32" s="98"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="101" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="94"/>
-      <c r="F32" s="94"/>
-      <c r="G32" s="94"/>
-      <c r="H32" s="94"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="97" t="s">
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="94"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="96" t="s">
         <v>116</v>
       </c>
-      <c r="L32" s="95"/>
+      <c r="L32" s="94"/>
     </row>
     <row r="33" spans="1:12" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="99"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="102" t="s">
+      <c r="A33" s="98"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="101" t="s">
         <v>128</v>
       </c>
-      <c r="E33" s="93" t="s">
+      <c r="E33" s="92" t="s">
         <v>177</v>
       </c>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="101" t="s">
+      <c r="F33" s="93"/>
+      <c r="G33" s="93"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="100" t="s">
         <v>175</v>
       </c>
-      <c r="J33" s="91"/>
-      <c r="K33" s="97" t="s">
+      <c r="J33" s="90"/>
+      <c r="K33" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="L33" s="95"/>
+      <c r="L33" s="94"/>
     </row>
     <row r="34" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="99"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="92" t="s">
+      <c r="A34" s="98"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="91" t="s">
         <v>174</v>
       </c>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="95"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="97" t="s">
+      <c r="E34" s="93"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="93"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="L34" s="95"/>
+      <c r="L34" s="94"/>
     </row>
     <row r="35" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="99"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="97" t="s">
+      <c r="A35" s="98"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="90"/>
+      <c r="K35" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="L35" s="95"/>
+      <c r="L35" s="94"/>
     </row>
     <row r="36" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="99"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="97" t="s">
+      <c r="A36" s="98"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
+      <c r="F36" s="104"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="104"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="L36" s="95"/>
+      <c r="L36" s="94"/>
     </row>
     <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="99"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="90"/>
-      <c r="G37" s="90"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="97" t="s">
+      <c r="A37" s="98"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="89"/>
+      <c r="E37" s="89"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="89"/>
+      <c r="H37" s="89"/>
+      <c r="I37" s="90"/>
+      <c r="J37" s="90"/>
+      <c r="K37" s="96" t="s">
         <v>121</v>
       </c>
-      <c r="L37" s="95"/>
+      <c r="L37" s="94"/>
     </row>
     <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="99"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="97" t="s">
+      <c r="A38" s="98"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="89"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="89"/>
+      <c r="H38" s="89"/>
+      <c r="I38" s="90"/>
+      <c r="J38" s="90"/>
+      <c r="K38" s="96" t="s">
         <v>122</v>
       </c>
-      <c r="L38" s="101" t="s">
+      <c r="L38" s="100" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="99"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="90"/>
-      <c r="E39" s="90"/>
-      <c r="F39" s="90"/>
-      <c r="G39" s="90"/>
-      <c r="H39" s="90"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="97" t="s">
+      <c r="A39" s="98"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="96" t="s">
         <v>123</v>
       </c>
-      <c r="L39" s="101" t="s">
+      <c r="L39" s="100" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="99"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="90"/>
-      <c r="E40" s="90"/>
-      <c r="F40" s="90"/>
-      <c r="G40" s="90"/>
-      <c r="H40" s="90"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="97" t="s">
+      <c r="A40" s="98"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
+      <c r="D40" s="89"/>
+      <c r="E40" s="89"/>
+      <c r="F40" s="89"/>
+      <c r="G40" s="89"/>
+      <c r="H40" s="89"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="L40" s="101" t="s">
+      <c r="L40" s="100" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="99"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="90"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="97" t="s">
+      <c r="A41" s="98"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="89"/>
+      <c r="E41" s="89"/>
+      <c r="F41" s="89"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="90"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="L41" s="101" t="s">
+      <c r="L41" s="100" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="99"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="90"/>
-      <c r="E42" s="90"/>
-      <c r="F42" s="90"/>
-      <c r="G42" s="90"/>
-      <c r="H42" s="90"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="97" t="s">
+      <c r="A42" s="98"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="89"/>
+      <c r="D42" s="89"/>
+      <c r="E42" s="89"/>
+      <c r="F42" s="89"/>
+      <c r="G42" s="89"/>
+      <c r="H42" s="89"/>
+      <c r="I42" s="90"/>
+      <c r="J42" s="90"/>
+      <c r="K42" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="L42" s="101" t="s">
+      <c r="L42" s="100" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="99"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="90"/>
-      <c r="E43" s="90"/>
-      <c r="F43" s="90"/>
-      <c r="G43" s="90"/>
-      <c r="H43" s="90"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="97" t="s">
+      <c r="A43" s="98"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="89"/>
+      <c r="D43" s="89"/>
+      <c r="E43" s="89"/>
+      <c r="F43" s="89"/>
+      <c r="G43" s="89"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="90"/>
+      <c r="J43" s="90"/>
+      <c r="K43" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="L43" s="101" t="s">
+      <c r="L43" s="100" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="99"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="97" t="s">
+      <c r="A44" s="98"/>
+      <c r="B44" s="89"/>
+      <c r="C44" s="89"/>
+      <c r="D44" s="89"/>
+      <c r="E44" s="89"/>
+      <c r="F44" s="89"/>
+      <c r="G44" s="89"/>
+      <c r="H44" s="89"/>
+      <c r="I44" s="90"/>
+      <c r="J44" s="90"/>
+      <c r="K44" s="96" t="s">
         <v>127</v>
       </c>
-      <c r="L44" s="101" t="s">
+      <c r="L44" s="100" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="99"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="90"/>
-      <c r="F45" s="90"/>
-      <c r="G45" s="90"/>
-      <c r="H45" s="90"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="97" t="s">
+      <c r="A45" s="98"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="90"/>
+      <c r="J45" s="90"/>
+      <c r="K45" s="96" t="s">
         <v>129</v>
       </c>
-      <c r="L45" s="101" t="s">
+      <c r="L45" s="100" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="99"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="97" t="s">
+      <c r="A46" s="98"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="89"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="89"/>
+      <c r="G46" s="89"/>
+      <c r="H46" s="89"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="96" t="s">
         <v>130</v>
       </c>
-      <c r="L46" s="101" t="s">
+      <c r="L46" s="100" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="99"/>
-      <c r="B47" s="90"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="90"/>
-      <c r="E47" s="90"/>
-      <c r="F47" s="90"/>
-      <c r="G47" s="90"/>
-      <c r="H47" s="90"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="97" t="s">
+      <c r="A47" s="98"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="89"/>
+      <c r="E47" s="89"/>
+      <c r="F47" s="89"/>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89"/>
+      <c r="I47" s="90"/>
+      <c r="J47" s="90"/>
+      <c r="K47" s="96" t="s">
         <v>131</v>
       </c>
-      <c r="L47" s="101" t="s">
+      <c r="L47" s="100" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="99"/>
-      <c r="B48" s="90"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="90"/>
-      <c r="E48" s="90"/>
-      <c r="F48" s="90"/>
-      <c r="G48" s="90"/>
-      <c r="H48" s="90"/>
-      <c r="I48" s="91"/>
-      <c r="J48" s="91"/>
-      <c r="K48" s="97" t="s">
+      <c r="A48" s="98"/>
+      <c r="B48" s="89"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="89"/>
+      <c r="E48" s="89"/>
+      <c r="F48" s="89"/>
+      <c r="G48" s="89"/>
+      <c r="H48" s="89"/>
+      <c r="I48" s="90"/>
+      <c r="J48" s="90"/>
+      <c r="K48" s="96" t="s">
         <v>132</v>
       </c>
-      <c r="L48" s="101" t="s">
+      <c r="L48" s="100" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="99"/>
-      <c r="B49" s="90"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="90"/>
-      <c r="E49" s="90"/>
-      <c r="F49" s="90"/>
-      <c r="G49" s="90"/>
-      <c r="H49" s="90"/>
-      <c r="I49" s="91"/>
-      <c r="J49" s="91"/>
-      <c r="K49" s="97" t="s">
+      <c r="A49" s="98"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="89"/>
+      <c r="D49" s="89"/>
+      <c r="E49" s="89"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="89"/>
+      <c r="H49" s="89"/>
+      <c r="I49" s="90"/>
+      <c r="J49" s="90"/>
+      <c r="K49" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="L49" s="101" t="s">
+      <c r="L49" s="100" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="99"/>
-      <c r="B50" s="90"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="91"/>
-      <c r="J50" s="91"/>
-      <c r="K50" s="97" t="s">
+      <c r="A50" s="98"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="90"/>
+      <c r="J50" s="90"/>
+      <c r="K50" s="96" t="s">
         <v>134</v>
       </c>
-      <c r="L50" s="101" t="s">
+      <c r="L50" s="100" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="99"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="91"/>
-      <c r="J51" s="91"/>
-      <c r="K51" s="97" t="s">
+      <c r="A51" s="98"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="89"/>
+      <c r="D51" s="89"/>
+      <c r="E51" s="89"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="89"/>
+      <c r="H51" s="89"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="96" t="s">
         <v>135</v>
       </c>
-      <c r="L51" s="101" t="s">
+      <c r="L51" s="100" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="99"/>
-      <c r="B52" s="90"/>
-      <c r="C52" s="90"/>
-      <c r="D52" s="90"/>
-      <c r="E52" s="90"/>
-      <c r="F52" s="90"/>
-      <c r="G52" s="90"/>
-      <c r="H52" s="90"/>
-      <c r="I52" s="91"/>
-      <c r="J52" s="91"/>
-      <c r="K52" s="97" t="s">
+      <c r="A52" s="98"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="89"/>
+      <c r="G52" s="89"/>
+      <c r="H52" s="89"/>
+      <c r="I52" s="90"/>
+      <c r="J52" s="90"/>
+      <c r="K52" s="96" t="s">
         <v>136</v>
       </c>
-      <c r="L52" s="101" t="s">
+      <c r="L52" s="100" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="99"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="90"/>
-      <c r="E53" s="90"/>
-      <c r="F53" s="90"/>
-      <c r="G53" s="90"/>
-      <c r="H53" s="90"/>
-      <c r="I53" s="91"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="97" t="s">
+      <c r="A53" s="98"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="89"/>
+      <c r="D53" s="89"/>
+      <c r="E53" s="89"/>
+      <c r="F53" s="89"/>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="96" t="s">
         <v>137</v>
       </c>
-      <c r="L53" s="95"/>
+      <c r="L53" s="94"/>
     </row>
     <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="99"/>
-      <c r="B54" s="90"/>
-      <c r="C54" s="90"/>
-      <c r="D54" s="90"/>
-      <c r="E54" s="90"/>
-      <c r="F54" s="90"/>
-      <c r="G54" s="90"/>
-      <c r="H54" s="90"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="103"/>
-      <c r="L54" s="95"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="89"/>
+      <c r="G54" s="89"/>
+      <c r="H54" s="89"/>
+      <c r="I54" s="90"/>
+      <c r="J54" s="90"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="94"/>
     </row>
     <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="107"/>
-      <c r="B55" s="108"/>
-      <c r="C55" s="108"/>
-      <c r="D55" s="108"/>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="109"/>
-      <c r="J55" s="109"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="106"/>
+      <c r="A55" s="106"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="107"/>
+      <c r="D55" s="107"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="108"/>
+      <c r="J55" s="108"/>
+      <c r="K55" s="103"/>
+      <c r="L55" s="105"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
